--- a/info_excel.xlsx
+++ b/info_excel.xlsx
@@ -7,7 +7,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="BCP SOLES" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="BCP DOLARES" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="BBVA SOLES" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="BBVA DOLARES" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="SCOTIA SOLES" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="SCOTIA DOLARES" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,31 +439,1457 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Fecha</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Codigo</t>
+          <t>Fecha valuta</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Descripcion operacion</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Monto</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Saldo</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Sucursal-Agencia</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Operacion numero</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Operacion hora</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Usuario</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>UTC</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Cotizacion</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Guia</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>F/B</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Vendedor</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>07/08/2022</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>IMPUESTO ITF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>-0.1</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2426.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>000-000</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0      0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>BATCH</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0909  </t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>CP01-0001</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>['T001-1000', 'T001-1001']</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>FP01-0001</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>USR-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>07/08/2022</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>TRAN.CTAS.TERC.HK</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2112.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2426.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>111-023</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>00055277</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>11:00:11</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>HBK658</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2701  </t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>CP01-0001</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>['T001-1000', 'T001-1001']</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>FP01-0001</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>USR-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>20/09/2022</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>IMPUESTO ITF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>-0.1</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2426.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>000-000</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0      0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>BATCH</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0909  </t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>CP01-0001</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>['T001-1000', 'T001-1001']</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>FP01-0001</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>USR-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>15/09/2022</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>TRAN.CTAS.TERC.HK</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2112.18</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2426.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>111-023</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>00055277</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>11:00:11</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>HBK658</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2701  </t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>CP01-0001</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>['T001-1000', 'T001-1001']</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>FP01-0001</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>USR-2</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
           <t>Fecha</t>
         </is>
       </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Fecha valuta</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Descripcion operacion</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Monto</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Saldo</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Sucursal-Agencia</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Operacion numero</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Operacion hora</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Usuario</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>UTC</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Cotizacion</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Guia</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>F/B</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Vendedor</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>07/08/2022</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>IMPUESTO ITF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>-0.1</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2426.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>000-000</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0      0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>BATCH</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0909  </t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>07/08/2022</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>TRAN.CTAS.TERC.HK</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2112.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2426.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>111-023</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>00055277</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>11:00:11</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>HBK658</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2701  </t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>21/08/2022</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>IMPUESTO ITF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>-0.1</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2426.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>000-000</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0      0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>BATCH</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0909  </t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>22/08/2022</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>TRAN.CTAS.TERC.HK</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2112.18</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2426.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>111-023</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>00055277</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>11:00:11</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>HBK658</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2701  </t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>F.Operacion</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>F.Valor</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Referencia</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Importe</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>ITF</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Num.Mvto</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Cotizacion</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Guia</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>F/B</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Vendedor</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>07/07/2022</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CP01-0001</t>
+          <t>2022-07-07 00:00:00</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2022-08-23</t>
-        </is>
-      </c>
+          <t>*COMIS BBVA NET CASH 2022-07</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>-40.0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>04/07/2022</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-07-04 00:00:00</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>P.P.: 001102509600286754 - 4</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>-2091.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>-0.1</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>15/08/2022</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2022-08-15 00:00:00</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>*COMIS BBVA NET CASH 2022-07</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>-40.0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>18/09/2022</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2022-09-18 00:00:00</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>P.P.: 001102509600286754 - 4</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>-2091.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>-0.1</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>F.Operacion</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>F.Valor</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Referencia</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Importe</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>ITF</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Num.Mvto</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Cotizacion</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Guia</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>F/B</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Vendedor</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>30/06/2022</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-06-30 00:00:00</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>COMISION DE MANTENIMIENTO</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>-5.4</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>27/06/2022</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-06-27 00:00:00</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>R20601799309INVERSIONES BJES EIRL</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>806.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>30/05/2022</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2022-06-30 00:00:00</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>COMISION DE MANTENIMIENTO</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>-5.4</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>27/05/2022</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2022-06-27 00:00:00</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>R20601799309INVERSIONES BJES EIRL</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>806.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>FECHA</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>DESCRIPCION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Nro.DOC</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>CARGO</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>ABONO</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Cotizacion</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Guia</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>F/B</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Vendedor</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>01/07/2022</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TBK-PAGO PROVEEDORES          </t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>20338054115</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>19954.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>01/07/2022</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IMPUESTO A LOS CREDITOS       </t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>20338054115</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>-0.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>01/10/2022</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TBK-PAGO PROVEEDORES          </t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>20338054115</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>19954.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>01/10/2022</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IMPUESTO A LOS CREDITOS       </t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>20338054115</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>-0.95</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>FECHA</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>DESCRIPCION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Nro.DOC</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>CARGO</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>ABONO</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Cotizacion</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Guia</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>F/B</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Vendedor</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>01/07/2022</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TBK-PAGO PROVEEDORES          </t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>20338054115</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>19954.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>01/07/2022</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IMPUESTO A LOS CREDITOS       </t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>20338054115</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>-0.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>01/09/2022</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TBK-PAGO PROVEEDORES          </t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>20338054115</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>19954.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>01/09/2022</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IMPUESTO A LOS CREDITOS       </t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>20338054115</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>-0.95</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/info_excel.xlsx
+++ b/info_excel.xlsx
@@ -7,12 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="BCP SOLES" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="BCP DOLARES" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="BBVA SOLES" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="BBVA DOLARES" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="SCOTIA SOLES" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="SCOTIA DOLARES" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -430,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,441 +434,125 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Fecha</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Fecha valuta</t>
-        </is>
-      </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Descripcion operacion</t>
+          <t>Descricion</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Moneda</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Monto</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Saldo</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Sucursal-Agencia</t>
+          <t>Nro de operacion</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Operacion numero</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Operacion hora</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Usuario</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>UTC</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Cotizacion</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Guia</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>F/B</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Vendedor</t>
+          <t>Codigo del vendedor</t>
         </is>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:N1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Fecha</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Fecha valuta</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Descripcion operacion</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Monto</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Saldo</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Sucursal-Agencia</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Operacion numero</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Operacion hora</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Usuario</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>UTC</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Cotizacion</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Guia</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>F/B</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Vendedor</t>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>20/09/2022</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>IMPUESTO ITF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>SOLES</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>-0.1</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0      0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>USR-2</t>
         </is>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>F.Operacion</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>F.Valor</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Referencia</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Importe</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>ITF</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Num.Mvto</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Cotizacion</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Guia</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>F/B</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Vendedor</t>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>15/09/2022</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>TRAN.CTAS.TERC.HK</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>SOLES</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2112.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>00055277</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>USR-2</t>
         </is>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>F.Operacion</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>F.Valor</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Referencia</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Importe</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>ITF</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Num.Mvto</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Cotizacion</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Guia</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>F/B</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Vendedor</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>FECHA</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>DESCRIPCION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Nro.DOC</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>CARGO</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>ABONO</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Cotizacion</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Guia</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>F/B</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Vendedor</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>FECHA</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>DESCRIPCION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Nro.DOC</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>CARGO</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>ABONO</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Cotizacion</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Guia</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>F/B</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Vendedor</t>
-        </is>
-      </c>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Monto total</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2112.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/info_excel.xlsx
+++ b/info_excel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,125 +434,117 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Fecha</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Fecha</t>
+          <t>Descricion</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Descricion</t>
+          <t>Nro de operacion</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Codigo del vendedor</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Moneda</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Monto</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Nro de operacion</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Codigo del vendedor</t>
+          <t>Tipo de Cambio</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Monto (S./)</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Monto final</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>15/09/2022</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>20/09/2022</t>
+          <t>TRAN.CTAS.TERC.HK</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>IMPUESTO ITF</t>
+          <t>00055277</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>USR-2</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>SOLES</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>-0.1</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0      0</t>
+          <t>2112.18</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>USR-2</t>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2112.18</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>1789.98</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>15/09/2022</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>TRAN.CTAS.TERC.HK</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>SOLES</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2112.18</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>00055277</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>USR-2</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Monto total</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2112.08</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1789.98</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/info_excel.xlsx
+++ b/info_excel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,26 +434,21 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Codigo</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Vendedor</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Fecha</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Descricion</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Nro de operacion</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Codigo del vendedor</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Moneda</t>
@@ -461,44 +456,32 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Monto</t>
+          <t>Estado</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Tipo de Cambio</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Monto (S./)</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Monto final</t>
+          <t>Cliente</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>15/09/2022</t>
-        </is>
+      <c r="A2" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TRAN.CTAS.TERC.HK</t>
+          <t>FP01-0002</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>00055277</t>
+          <t>Alexander</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>USR-2</t>
+          <t>2022-08-30</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -508,41 +491,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2112.18</t>
+          <t>Generada</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2112.18</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>1789.98</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Monto total</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>1789.98</t>
+          <t>REDES Y APAREJOS DEL MAR S.A.C.</t>
         </is>
       </c>
     </row>

--- a/info_excel.xlsx
+++ b/info_excel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,19 +434,24 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Fecha</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Codigo</t>
+          <t>Comprobante</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Vendedor</t>
+          <t>Cliente</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Fecha</t>
+          <t>Estado</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -456,47 +461,147 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Estado</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Cliente</t>
+          <t>Monto (S/)</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2022-08-23</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FP01-0002</t>
+          <t>CP01-0001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Alexander</t>
+          <t>INVERSIONES MIJEY E.I.R.L.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>Emitida</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>SOLES</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>454.40</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2022-08-29</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CP01-0002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>PRO STEEL PERU S.A.C.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Generada</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>SOLES</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1900.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>2022-08-30</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CP01-0004</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>REDES Y APAREJOS DEL MAR S.A.C.</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Emitida</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>SOLES</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3594.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2022-08-29</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CP01-0003</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
         <is>
           <t>Generada</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>REDES Y APAREJOS DEL MAR S.A.C.</t>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>SOLES</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1384.08</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Monto Total</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7333.23</t>
         </is>
       </c>
     </row>

--- a/info_excel.xlsx
+++ b/info_excel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,6 +461,11 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Monto de la proforma</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Monto (S/)</t>
         </is>
       </c>
@@ -496,6 +501,11 @@
           <t>454.40</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>454.40</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -528,6 +538,11 @@
           <t>1900.50</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1900.50</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -560,6 +575,11 @@
           <t>3594.25</t>
         </is>
       </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3594.25</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -588,20 +608,100 @@
           <t>1384.08</t>
         </is>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1384.08</t>
+        </is>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CP01-0005</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>GM INGENIEROS NACIONALES S.A.C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Generada</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>DOLARES</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>315.60</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1224.80</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2022-09-10</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CP01-0006</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>GM INGENIEROS NACIONALES S.A.C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Generada</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>DOLARES</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1106.10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4294.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>Monto Total</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>7333.23</t>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>8754.93</t>
         </is>
       </c>
     </row>

--- a/info_excel.xlsx
+++ b/info_excel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,25 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Vendedor</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Guias</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Moneda</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Monto de la proforma</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Monto de la factura</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Monto (S/)</t>
         </is>
@@ -473,12 +483,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-08-23</t>
+          <t>2022-08-24</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CP01-0001</t>
+          <t>FP01-0001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -488,20 +498,30 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Emitida</t>
+          <t>Generada</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>USR-2</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>['T001-1000', 'T001-1001']</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>SOLES</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>454.40</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>454.40</t>
         </is>
@@ -510,17 +530,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-08-29</t>
+          <t>2022-08-30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CP01-0002</t>
+          <t>FP01-0002</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PRO STEEL PERU S.A.C.</t>
+          <t>REDES Y APAREJOS DEL MAR S.A.C.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -530,66 +550,86 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>USR-3</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>SOLES</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1900.50</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1900.50</t>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>3594.25</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>3594.25</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2022-08-30</t>
+          <t>2022-09-11</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CP01-0004</t>
+          <t>FP01-0003</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>REDES Y APAREJOS DEL MAR S.A.C.</t>
+          <t>GM INGENIEROS NACIONALES S.A.C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Emitida</t>
+          <t>Generada</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>SOLES</t>
+          <t>USR-4</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3594.25</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3594.25</t>
+          <t>DOLARES</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1106.10</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>4294.50</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022-08-29</t>
+          <t>2022-09-11</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CP01-0003</t>
+          <t>FP01-0004</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -600,110 +640,48 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>SOLES</t>
+          <t>USR-3</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1384.08</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
+        <is>
+          <t>DOLARES</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>359.76</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>1384.08</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2022-09-08</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>CP01-0005</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>GM INGENIEROS NACIONALES S.A.C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Generada</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>DOLARES</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>315.60</t>
-        </is>
-      </c>
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1224.80</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2022-09-10</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>CP01-0006</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>GM INGENIEROS NACIONALES S.A.C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Generada</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>DOLARES</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1106.10</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>4294.50</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
           <t>Monto Total</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>8754.93</t>
-        </is>
-      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>5514.51</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/info_excel.xlsx
+++ b/info_excel.xlsx
@@ -7,7 +7,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="BCP SOLES" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="BCP DOLARES" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="BBVA SOLES" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="BBVA DOLARES" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="SCOTIA SOLES" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="SCOTIA DOLARES" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,13 +430,29 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="30" customWidth="1" min="1" max="1"/>
+    <col width="30" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="30" customWidth="1" min="4" max="4"/>
+    <col width="30" customWidth="1" min="5" max="5"/>
+    <col width="30" customWidth="1" min="6" max="6"/>
+    <col width="30" customWidth="1" min="7" max="7"/>
+    <col width="30" customWidth="1" min="8" max="8"/>
+    <col width="30" customWidth="1" min="9" max="9"/>
+    <col width="30" customWidth="1" min="10" max="10"/>
+    <col width="30" customWidth="1" min="11" max="11"/>
+    <col width="30" customWidth="1" min="12" max="12"/>
+    <col width="30" customWidth="1" min="13" max="13"/>
+    <col width="30" customWidth="1" min="14" max="14"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -441,247 +462,1313 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Comprobante</t>
+          <t>Fecha valuta</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Cliente</t>
+          <t>Descripcion operacion</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Estado</t>
+          <t>Monto</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Saldo</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Sucursal-Agencia</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Operacion numero</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Operacion hora</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Usuario</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>UTC</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Cotizacion</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Guia</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>F/B</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>Vendedor</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Guias</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Moneda</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Monto de la factura</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Monto (S/)</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-08-24</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>FP01-0001</t>
+          <t>09/01/2022</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>INVERSIONES MIJEY E.I.R.L.</t>
+          <t>IMPUESTO ITF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Generada</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>USR-2</t>
+          <t>25659.92</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>['T001-1000', 'T001-1001']</t>
+          <t>000-000</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>SOLES</t>
+          <t>0      0</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>454.40</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>454.40</t>
+          <t>BATCH</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0909  </t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-08-30</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>FP01-0002</t>
+          <t>09/01/2022</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>REDES Y APAREJOS DEL MAR S.A.C.</t>
+          <t>A 310 04583620 0</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Generada</t>
+          <t>-1480.24</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>USR-3</t>
+          <t>25660.07</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>111-008</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>SOLES</t>
+          <t>02018319</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>3594.25</t>
+          <t>10:34:33</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>3594.25</t>
+          <t>TNP0WH</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4401  </t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2022-09-11</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>FP01-0003</t>
+          <t>09/01/2022</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>GM INGENIEROS NACIONALES S.A.C</t>
+          <t>TELE 913339240</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Generada</t>
+          <t>-59.9</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>USR-4</t>
+          <t>27140.31</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>111-008</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>DOLARES</t>
+          <t>00013439</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1106.10</t>
+          <t>10:00:39</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>4294.50</t>
+          <t>TNP0O3</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4404  </t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022-09-11</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>FP01-0004</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
+          <t>09/01/2022</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ENTR.EFEC. 0178727</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Generada</t>
+          <t>2138.86</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>USR-3</t>
+          <t>27200.21</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>310-000</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>DOLARES</t>
+          <t>00178727</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>359.76</t>
+          <t>17:36:13</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1384.08</t>
+          <t>T19357</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1018  </t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>08/01/2022</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>IMPUESTO ITF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>-1.35</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>634.98</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>000-000</t>
+        </is>
+      </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Monto Total</t>
+          <t>0      0</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>5514.51</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>BATCH</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0909  </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>08/01/2022</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A 570 91973463 0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>-25000.0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>636.33</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>111-008</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>02011898</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>09:58:46</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>TNP0KA</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4401  </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>08/01/2022</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>A 570 91973463 0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>-1931.8</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>25636.33</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>111-008</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>02032896</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>11:58:34</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>TNP0DQ</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4401  </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>08/01/2022</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>A 310 04583620 0</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>-1491.6</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>27568.13</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>111-008</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>02064079</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>16:23:29</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>TNP379</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4401  </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>08/01/2022</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>TELE 913339240</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>-59.9</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>29059.73</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>111-008</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>05034297</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>12:36:21</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>TNP0KS</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4404  </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>08/01/2022</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>DE METALPROTEC S.A.C.</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>26992.0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>29119.63</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>111-008</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>02010631</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>09:48:28</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>TNP0LW</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2406  </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>08/01/2022</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>TRAN.CTAS.TERC.BM</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>566.76</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2127.63</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>111-023</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>00259871</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>11:06:07</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>BMO992</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2701  </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="30" customWidth="1" min="1" max="1"/>
+    <col width="30" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="30" customWidth="1" min="4" max="4"/>
+    <col width="30" customWidth="1" min="5" max="5"/>
+    <col width="30" customWidth="1" min="6" max="6"/>
+    <col width="30" customWidth="1" min="7" max="7"/>
+    <col width="30" customWidth="1" min="8" max="8"/>
+    <col width="30" customWidth="1" min="9" max="9"/>
+    <col width="30" customWidth="1" min="10" max="10"/>
+    <col width="30" customWidth="1" min="11" max="11"/>
+    <col width="30" customWidth="1" min="12" max="12"/>
+    <col width="30" customWidth="1" min="13" max="13"/>
+    <col width="30" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Fecha</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Fecha valuta</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Descripcion operacion</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Monto</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Saldo</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Sucursal-Agencia</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Operacion numero</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Operacion hora</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Usuario</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>UTC</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Cotizacion</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Guia</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>F/B</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Vendedor</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>09/01/2022</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>IMPUESTO ITF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>-0.2</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>4877.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>000-000</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0      0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>BATCH</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0909  </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>09/01/2022</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A 193 1165447 1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>-4786.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>4877.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>111-008</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>02084511</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>17:34:34</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>TNP0SG</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4401  </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>09/01/2022</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>TRAN.CTAS.TERC.BM</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>142.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>9664.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>111-023</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>01324575</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>14:31:08</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>BMO250</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2701  </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>08/01/2022</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>IMPUESTO ITF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>-0.7</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>8898.88</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>000-000</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0      0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>BATCH</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0909  </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>08/01/2022</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A 193 1165447 1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>-14202.34</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>8899.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>111-008</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>02061844</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>16:10:26</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>TNP027</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4401  </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>08/01/2022</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A 310 9888337 0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>-7000.0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>23101.92</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>111-008</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>01010631</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>09:48:28</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>TNP0LW</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4406  </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="30" customWidth="1" min="1" max="1"/>
+    <col width="30" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="30" customWidth="1" min="4" max="4"/>
+    <col width="30" customWidth="1" min="5" max="5"/>
+    <col width="30" customWidth="1" min="6" max="6"/>
+    <col width="30" customWidth="1" min="7" max="7"/>
+    <col width="30" customWidth="1" min="8" max="8"/>
+    <col width="30" customWidth="1" min="9" max="9"/>
+    <col width="30" customWidth="1" min="10" max="10"/>
+    <col width="30" customWidth="1" min="11" max="11"/>
+    <col width="30" customWidth="1" min="12" max="12"/>
+    <col width="30" customWidth="1" min="13" max="13"/>
+    <col width="30" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>F.Operacion</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>F.Valor</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Referencia</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Importe</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>ITF</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Num.Mvto</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Cotizacion</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Guia</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>F/B</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Vendedor</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="30" customWidth="1" min="1" max="1"/>
+    <col width="30" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="30" customWidth="1" min="4" max="4"/>
+    <col width="30" customWidth="1" min="5" max="5"/>
+    <col width="30" customWidth="1" min="6" max="6"/>
+    <col width="30" customWidth="1" min="7" max="7"/>
+    <col width="30" customWidth="1" min="8" max="8"/>
+    <col width="30" customWidth="1" min="9" max="9"/>
+    <col width="30" customWidth="1" min="10" max="10"/>
+    <col width="30" customWidth="1" min="11" max="11"/>
+    <col width="30" customWidth="1" min="12" max="12"/>
+    <col width="30" customWidth="1" min="13" max="13"/>
+    <col width="30" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>F.Operacion</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>F.Valor</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Referencia</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Importe</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>ITF</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Num.Mvto</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Cotizacion</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Guia</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>F/B</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Vendedor</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="30" customWidth="1" min="1" max="1"/>
+    <col width="30" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="30" customWidth="1" min="4" max="4"/>
+    <col width="30" customWidth="1" min="5" max="5"/>
+    <col width="30" customWidth="1" min="6" max="6"/>
+    <col width="30" customWidth="1" min="7" max="7"/>
+    <col width="30" customWidth="1" min="8" max="8"/>
+    <col width="30" customWidth="1" min="9" max="9"/>
+    <col width="30" customWidth="1" min="10" max="10"/>
+    <col width="30" customWidth="1" min="11" max="11"/>
+    <col width="30" customWidth="1" min="12" max="12"/>
+    <col width="30" customWidth="1" min="13" max="13"/>
+    <col width="30" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>FECHA</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>DESCRIPCION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Nro.DOC</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>CARGO</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>ABONO</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Cotizacion</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Guia</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>F/B</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Vendedor</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="30" customWidth="1" min="1" max="1"/>
+    <col width="30" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="30" customWidth="1" min="4" max="4"/>
+    <col width="30" customWidth="1" min="5" max="5"/>
+    <col width="30" customWidth="1" min="6" max="6"/>
+    <col width="30" customWidth="1" min="7" max="7"/>
+    <col width="30" customWidth="1" min="8" max="8"/>
+    <col width="30" customWidth="1" min="9" max="9"/>
+    <col width="30" customWidth="1" min="10" max="10"/>
+    <col width="30" customWidth="1" min="11" max="11"/>
+    <col width="30" customWidth="1" min="12" max="12"/>
+    <col width="30" customWidth="1" min="13" max="13"/>
+    <col width="30" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>FECHA</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>DESCRIPCION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Nro.DOC</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>CARGO</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>ABONO</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Cotizacion</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Guia</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>F/B</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Vendedor</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/info_excel.xlsx
+++ b/info_excel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,163 +452,148 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Descricion</t>
+          <t>Comprobante</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Nro de operacion</t>
+          <t>Cliente</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Codigo del vendedor</t>
+          <t>Estado</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Banco</t>
+          <t>Vendedor</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Guias</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Moneda</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Monto</t>
-        </is>
-      </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Tipo de Cambio</t>
+          <t>Monto de la factura</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Monto (S./)</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Monto final</t>
+          <t>Monto (S/)</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>22/09/2022</t>
+          <t>2022-08-24</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DE METALPROTEC S.A.C.</t>
+          <t>FP01-0001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>02025841</t>
+          <t>INVERSIONES MIJEY E.I.R.L.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>USR-4</t>
+          <t>Generada</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>BCP</t>
+          <t>USR-2</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>DOLARES</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2491.74</t>
+          <t>SOLES</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>3.88</t>
+          <t>454.40</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>9670.44</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>8195.29</t>
+          <t>454.40</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>22/09/2022</t>
+          <t>2022-08-30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ENTR.EFEC. 0398981</t>
+          <t>FP01-0002</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>00398981</t>
+          <t>REDES Y APAREJOS DEL MAR S.A.C.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>USR-4</t>
+          <t>Generada</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>BCP</t>
+          <t>USR-3</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>SOLES</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>8221.36</t>
-        </is>
-      </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>3594.25</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>8221.36</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>6967.25</t>
+          <t>3594.25</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="H4" t="inlineStr">
         <is>
-          <t>Monto total</t>
+          <t>Monto Total</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>15162.54</t>
+          <t>4048.65</t>
         </is>
       </c>
     </row>

--- a/info_excel.xlsx
+++ b/info_excel.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +57,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,148 +456,1587 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Comprobante</t>
+          <t>Codigo de producto</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Cliente</t>
+          <t>Producto</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Estado</t>
+          <t>Cantidad</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Vendedor</t>
+          <t>Stock anterior</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Guias</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Moneda</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Monto de la factura</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Monto (S/)</t>
+          <t>Nuevo Stock</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2022-08-24</t>
-        </is>
+      <c r="A2" s="3" t="n">
+        <v>44885</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FP01-0001</t>
+          <t>1509460301</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>INVERSIONES MIJEY E.I.R.L.</t>
+          <t>DURAPOX ESMALTE 950 VERDE ESMERALDA 1 GL</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Generada</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>USR-2</t>
+          <t>-6.0</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>SOLES</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>454.40</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>454.40</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2022-08-30</t>
-        </is>
+      <c r="A3" s="3" t="n">
+        <v>44885</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>FP01-0002</t>
+          <t>1509000101</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>REDES Y APAREJOS DEL MAR S.A.C.</t>
+          <t>DURAPOX ESMALTE 950 BLANCO 1700 1 GLS</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Generada</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>USR-3</t>
+          <t>-4.0</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>SOLES</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>3594.25</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>3594.25</t>
+          <t>6.0</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Monto Total</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>4048.65</t>
+      <c r="A4" s="3" t="n">
+        <v>44885</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1510999903</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>DURAPOX ESMALTE 950-CATALIZADOR  1/4 GLS</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>343.0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>359.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>44885</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1765832901</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>JET 70 MP GRIS NIEBLA 1680 1 GL</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44885</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1766999901</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>JET 70 MP - CATALIZADOR . 1 GL</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>44885</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1922890001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>JET BITUFLEX 70 PF NEGRO 1 GL</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>-15.0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>-14.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
+        <v>44885</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1923999901</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>JET BITUFLEX 70 PF CATALIZADOR . 1 GL</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>-15.0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>-14.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n">
+        <v>44885</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1A01999901</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>JET ECOPOXY 90 . 1 GL</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>-10.0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n">
+        <v>44886</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1509520401</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>DURAPOX ESMALTE 950 NARANJA 1250 1 GLS</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n">
+        <v>44886</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1509460301</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>DURAPOX ESMALTE 950 VERDE ESMERALDA 1 GL</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n">
+        <v>44886</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1509000101</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>DURAPOX ESMALTE 950 BLANCO 1700 1 GLS</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="n">
+        <v>44886</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1510999903</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>DURAPOX ESMALTE 950-CATALIZADOR  1/4 GLS</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>359.0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>375.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n">
+        <v>44886</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1765832901</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>JET 70 MP GRIS NIEBLA 1680 1 GL</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n">
+        <v>44886</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1766999901</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>JET 70 MP - CATALIZADOR . 1 GL</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="n">
+        <v>44886</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1922890001</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>JET BITUFLEX 70 PF NEGRO 1 GL</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>-14.0</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>-13.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="n">
+        <v>44886</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1923999901</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>JET BITUFLEX 70 PF CATALIZADOR . 1 GL</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>-14.0</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>-13.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="n">
+        <v>44886</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1A01999901</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>JET ECOPOXY 90 . 1 GL</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="n">
+        <v>44886</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1509520201</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>DURAPOX ESMALTE 950 NARANJA INT'L OR-1 1200 1 GL</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>-1.0</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="n">
+        <v>44886</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1509520201</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>DURAPOX ESMALTE 950 NARANJA INT'L OR-1 1200 1 GL</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>-1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="n">
+        <v>44886</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1509520401</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>DURAPOX ESMALTE 950 NARANJA 1250 1 GLS</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>-1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="n">
+        <v>44886</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>1509520401</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>DURAPOX ESMALTE 950 NARANJA 1250 1 GLS</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>-1.0</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="n">
+        <v>44888</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>1509460301</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>DURAPOX ESMALTE 950 VERDE ESMERALDA 1 GL</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="n">
+        <v>44888</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>1A01999901</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>JET ECOPOXY 90 . 1 GL</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>-7.0</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="n">
+        <v>44888</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>1509460301</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>DURAPOX ESMALTE 950 VERDE ESMERALDA 1 GL</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="n">
+        <v>44888</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>1509000101</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>DURAPOX ESMALTE 950 BLANCO 1700 1 GLS</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>-45.0</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>-35.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="n">
+        <v>44888</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>1510999903</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>DURAPOX ESMALTE 950-CATALIZADOR  1/4 GLS</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>301.0</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>317.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="n">
+        <v>44888</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>1765832901</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>JET 70 MP GRIS NIEBLA 1680 1 GL</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="n">
+        <v>44888</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>1766999901</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>JET 70 MP - CATALIZADOR . 1 GL</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="n">
+        <v>44888</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>1922890001</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>JET BITUFLEX 70 PF NEGRO 1 GL</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>-17.0</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>-16.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="n">
+        <v>44888</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>1923999901</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>JET BITUFLEX 70 PF CATALIZADOR . 1 GL</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>-17.0</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>-16.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="n">
+        <v>44888</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>1A01999901</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>JET ECOPOXY 90 . 1 GL</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="n">
+        <v>44888</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>1509460301</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>DURAPOX ESMALTE 950 VERDE ESMERALDA 1 GL</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="n">
+        <v>44888</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>1509000101</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>DURAPOX ESMALTE 950 BLANCO 1700 1 GLS</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>-35.0</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>-25.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="n">
+        <v>44888</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>1510999903</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>DURAPOX ESMALTE 950-CATALIZADOR  1/4 GLS</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>317.0</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>333.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="n">
+        <v>44888</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>1765832901</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>JET 70 MP GRIS NIEBLA 1680 1 GL</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="n">
+        <v>44888</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>1766999901</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>JET 70 MP - CATALIZADOR . 1 GL</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="n">
+        <v>44888</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>1922890001</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>JET BITUFLEX 70 PF NEGRO 1 GL</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>-16.0</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>-15.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="n">
+        <v>44888</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>1923999901</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>JET BITUFLEX 70 PF CATALIZADOR . 1 GL</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>-16.0</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>-15.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="n">
+        <v>44888</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>1A01999901</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>JET ECOPOXY 90 . 1 GL</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="n">
+        <v>44889</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>1509430501</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>DURAPOX ESMALTE 950 VERDE NILO 1475 1 GLS</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>-2.0</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="n">
+        <v>44889</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>1509520201</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>DURAPOX ESMALTE 950 NARANJA INT'L OR-1 1200 1 GL</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>-1.0</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="n">
+        <v>44889</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>1510999903</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>DURAPOX ESMALTE 950-CATALIZADOR  1/4 GLS</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>323.0</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>326.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="n">
+        <v>44889</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>1922890001</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>JET BITUFLEX 70 PF NEGRO 1 GL</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>-15.0</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>-1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="n">
+        <v>44889</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>1923999901</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>JET BITUFLEX 70 PF CATALIZADOR . 1 GL</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>-15.0</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>-1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="n">
+        <v>44889</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>1509460301</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>DURAPOX ESMALTE 950 VERDE ESMERALDA 1 GL</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="n">
+        <v>44889</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>1509000101</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>DURAPOX ESMALTE 950 BLANCO 1700 1 GLS</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>-25.0</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>-15.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="n">
+        <v>44889</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>1510999903</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>DURAPOX ESMALTE 950-CATALIZADOR  1/4 GLS</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>326.0</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>342.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="n">
+        <v>44889</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>1765832901</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>JET 70 MP GRIS NIEBLA 1680 1 GL</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="n">
+        <v>44889</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>1766999901</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>JET 70 MP - CATALIZADOR . 1 GL</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="n">
+        <v>44889</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>1922890001</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>JET BITUFLEX 70 PF NEGRO 1 GL</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>-1.0</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="n">
+        <v>44889</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>1923999901</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>JET BITUFLEX 70 PF CATALIZADOR . 1 GL</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>-1.0</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="n">
+        <v>44889</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>1A01999901</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>JET ECOPOXY 90 . 1 GL</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>39.0</t>
         </is>
       </c>
     </row>

--- a/info_excel.xlsx
+++ b/info_excel.xlsx
@@ -16,9 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -57,13 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,156 +481,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="3" t="n">
-        <v>44808</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Ingreso</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Trujillo</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="n">
-        <v>44808</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Ingreso</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Chiclayo</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="n">
-        <v>44857</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Ingreso</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Lima</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>55.0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="n">
-        <v>44927</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Traslado</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Lima</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44927</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Traslado</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Chimbote</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/info_excel.xlsx
+++ b/info_excel.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +57,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,11 +441,6 @@
     <col width="30" customWidth="1" min="2" max="2"/>
     <col width="30" customWidth="1" min="3" max="3"/>
     <col width="30" customWidth="1" min="4" max="4"/>
-    <col width="30" customWidth="1" min="5" max="5"/>
-    <col width="30" customWidth="1" min="6" max="6"/>
-    <col width="30" customWidth="1" min="7" max="7"/>
-    <col width="30" customWidth="1" min="8" max="8"/>
-    <col width="30" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -452,32 +451,446 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Referencia</t>
+          <t>Codigo</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Almacen</t>
+          <t>Cliente</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Stock anterior</t>
+          <t>Nro operacion</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Nuevo Stock</t>
+          <t>Nro operacion 2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Cantidad de ingreso</t>
+          <t>Moneda</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Cantidad de egreso</t>
+          <t>Monto sin IGV</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
+        <v>44928</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>F001-0298</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>PESQUERA CONCEPCION S.A.C.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>DOLARES</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2867.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>44928</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>F001-0299</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>MEGUI INVESTMENT S.A.C.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>171693</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>DOLARES</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>412.14</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>44932</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>F001-0300</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>EMPRESA GRUPO JIVO SOCIEDAD ANONIMA CERRADA</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1273480</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>DOLARES</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1658.88</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>44932</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>F001-0304</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>OROSCO CASTRO JIMMY NICOLAY</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>69082</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>SOLES</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>390.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44932</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>F001-0305</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>EMPRESA PESQUERA ROSA ISABEL S.R.L.</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1830879</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>DOLARES</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2191.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>44932</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>F001-0306</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>OROSCO CASTRO JIMMY NICOLAY</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1986175</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>SOLES</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>68.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
+        <v>44932</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>F001-0307</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>STEEL ASESORIA E.I.R.L.</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>243534597</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>SOLES</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>146.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n">
+        <v>44932</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>F001-0308</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>STEEL ASESORIA E.I.R.L.</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>243536416</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>SOLES</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>213.21</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n">
+        <v>44932</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>F001-0309</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>MEGUI INVESTMENT S.A.C.</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>39411</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>DOLARES</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>4149.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n">
+        <v>44932</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>F001-0311</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>EMPRESA PESQUERA ROSA ISABEL S.R.L.</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1146102</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>DOLARES</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>429.74</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n">
+        <v>44932</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>F001-0312</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>AITANA&amp;KHALEESI E.I.R.L.</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>DOLARES</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>3186.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="n">
+        <v>44932</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>F001-0313</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>SERVICIOS INDUSTRIALES HALAVISI S.A.C.</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1785131</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>SOLES</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>178.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n">
+        <v>44932</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>F001-0314</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>SERVICIOS INDUSTRIALES HALAVISI S.A.C.</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1756488</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>SOLES</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>73.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Monto total</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>15966.26</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Monto comision</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>159.66</t>
         </is>
       </c>
     </row>

--- a/info_excel.xlsx
+++ b/info_excel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF40"/>
+  <dimension ref="A1:AF60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -642,27 +642,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>425</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2023-02-24</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>20603686498</t>
+          <t>10328246657</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MEGUI INVESTMENT S.A.C.</t>
+          <t>NEYRA LUJAN SANTOS TERESITA</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>AFECTO</t>
+          <t>3929.64</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -677,12 +677,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>NETO</t>
+          <t>4636.98</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>IGV</t>
+          <t>707.34</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -707,7 +707,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>4636.98</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -804,27 +804,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>424</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2023-02-24</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>20609395541</t>
+          <t>10165986780</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>PESQUERA CONCEPCION S.A.C.</t>
+          <t>ARROYO CASTRO MARCELINO</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>AFECTO</t>
+          <t>416.51</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -839,12 +839,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>NETO</t>
+          <t>491.48</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>IGV</t>
+          <t>74.97</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -869,7 +869,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>491.48</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -949,7 +949,7 @@
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -966,27 +966,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>423</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-02-23</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>20603686498</t>
+          <t>20602817670</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>MEGUI INVESTMENT S.A.C.</t>
+          <t>INGENIERIA Y SERVICIOS MECANICOS PERU S.A.C. - INSERMEC PERU S.A.C.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>AFECTO</t>
+          <t>359.97</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -1001,12 +1001,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>NETO</t>
+          <t>424.76</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>IGV</t>
+          <t>64.79</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -1031,7 +1031,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>424.76</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1128,27 +1128,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>422</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2023-02-23</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>20487853446</t>
+          <t>10329334657</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>ARENRUSTIK S.A.C.</t>
+          <t>VELASQUEZ NUÑEZ SILVIA DEL PILAR</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>AFECTO</t>
+          <t>412.15</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -1163,12 +1163,12 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>NETO</t>
+          <t>486.34</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>IGV</t>
+          <t>74.19</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>486.34</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -1290,27 +1290,27 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>421</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2022-12-28</t>
+          <t>2023-02-22</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>20603686498</t>
+          <t>20338054115</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>MEGUI INVESTMENT S.A.C.</t>
+          <t>AUSTRAL GROUP S.A.A</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>AFECTO</t>
+          <t>15500.0</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -1325,12 +1325,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>NETO</t>
+          <t>18290.0</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>IGV</t>
+          <t>2790.0</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>18290.0</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -1365,7 +1365,7 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Aceptado</t>
+          <t>Aceptado con Obs.</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
@@ -1430,12 +1430,12 @@
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>VENTA DE Productos</t>
+          <t>VENTA DE Servicios</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1452,27 +1452,27 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>420</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2022-12-26</t>
+          <t>2023-02-22</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>20600876211</t>
+          <t>20338054115</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>GRAU LOGISTICA EXPRESS S.A.</t>
+          <t>AUSTRAL GROUP S.A.A</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>AFECTO</t>
+          <t>2940.0</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -1487,12 +1487,12 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>NETO</t>
+          <t>3469.2</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>IGV</t>
+          <t>529.2</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -1517,7 +1517,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>3469.2</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
@@ -1527,7 +1527,7 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Aceptado</t>
+          <t>Aceptado con Obs.</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -1592,7 +1592,7 @@
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>VENTA DE Productos</t>
+          <t>VENTA DE Servicios</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
@@ -1614,27 +1614,27 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>419</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2022-12-23</t>
+          <t>2023-02-22</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>20569300194</t>
+          <t>20487981363</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>EMPRESA JEHOVA PODEROSO GIGANTE E.I.R.L.</t>
+          <t>PESQUERA JEHOVA PROVEERA S.A.C.</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>AFECTO</t>
+          <t>179.85</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1649,12 +1649,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>NETO</t>
+          <t>212.22</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>IGV</t>
+          <t>32.37</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1679,7 +1679,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>212.22</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
@@ -1776,27 +1776,27 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>418</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2022-12-23</t>
+          <t>2023-02-22</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>20606015195</t>
+          <t>20487981363</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>CORPORACION LIBRIARY S.A.C.</t>
+          <t>PESQUERA JEHOVA PROVEERA S.A.C.</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>AFECTO</t>
+          <t>192.72</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1811,12 +1811,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>NETO</t>
+          <t>227.41</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>IGV</t>
+          <t>34.69</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1841,7 +1841,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>227.41</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
@@ -1921,7 +1921,7 @@
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1938,27 +1938,27 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>417</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2022-12-23</t>
+          <t>2023-02-21</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>20602389660</t>
+          <t>20445766195</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>EMPRESA GRUPO JIVO SOCIEDAD ANONIMA CERRADA</t>
+          <t>PESQUERA DON ABELARDO S.A.C.</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>AFECTO</t>
+          <t>2253.02</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1973,12 +1973,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>NETO</t>
+          <t>2658.56</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>IGV</t>
+          <t>405.54</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>2658.56</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
@@ -2083,7 +2083,7 @@
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2100,27 +2100,27 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>416</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2022-12-23</t>
+          <t>2023-02-20</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>20602389660</t>
+          <t>20445766195</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>EMPRESA GRUPO JIVO SOCIEDAD ANONIMA CERRADA</t>
+          <t>PESQUERA DON ABELARDO S.A.C.</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>AFECTO</t>
+          <t>1049.42</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -2135,12 +2135,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>NETO</t>
+          <t>1238.32</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>IGV</t>
+          <t>188.9</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -2165,7 +2165,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>1238.32</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
@@ -2245,7 +2245,7 @@
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2262,27 +2262,27 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>415</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2022-12-22</t>
+          <t>2023-02-20</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>20487853446</t>
+          <t>20479977390</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>ARENRUSTIK S.A.C.</t>
+          <t>AUROMAR SOCIEDAD ANONIMA CERRADA</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>AFECTO</t>
+          <t>783.9</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -2297,12 +2297,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>NETO</t>
+          <t>925.0</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>IGV</t>
+          <t>141.1</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -2327,7 +2327,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>925.0</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
@@ -2407,7 +2407,7 @@
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2424,27 +2424,27 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>414</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2022-12-22</t>
+          <t>2023-02-20</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>20487853446</t>
+          <t>20445766195</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>ARENRUSTIK S.A.C.</t>
+          <t>PESQUERA DON ABELARDO S.A.C.</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>AFECTO</t>
+          <t>1780.25</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -2459,12 +2459,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>NETO</t>
+          <t>2100.69</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>IGV</t>
+          <t>320.44</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -2489,7 +2489,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>2100.69</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
@@ -2586,27 +2586,27 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>413</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2022-12-21</t>
+          <t>2023-02-20</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>20602389660</t>
+          <t>10165986780</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>EMPRESA GRUPO JIVO SOCIEDAD ANONIMA CERRADA</t>
+          <t>ARROYO CASTRO MARCELINO</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>AFECTO</t>
+          <t>350.46</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -2621,12 +2621,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>NETO</t>
+          <t>413.54</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>IGV</t>
+          <t>63.08</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -2651,7 +2651,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>413.54</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
@@ -2731,7 +2731,7 @@
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2748,27 +2748,27 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>412</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2022-12-20</t>
+          <t>2023-02-20</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>20602389660</t>
+          <t>20100003351</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>EMPRESA GRUPO JIVO SOCIEDAD ANONIMA CERRADA</t>
+          <t>SERVICIOS INDUSTRIALES DE LA MARINA S.A.</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>AFECTO</t>
+          <t>7978.54</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -2783,12 +2783,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>NETO</t>
+          <t>9414.68</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>IGV</t>
+          <t>1436.14</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>9414.68</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
@@ -2823,7 +2823,7 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Aceptado</t>
+          <t>Aceptado con Obs.</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
@@ -2848,52 +2848,52 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>FECHA DETRAC</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>COD BANCO</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>EN EL COMPROBANTE</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>EN EL COMPROBANTE</t>
+        </is>
+      </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>7012</t>
+        </is>
+      </c>
+      <c r="AE15" t="inlineStr">
+        <is>
+          <t>VENTA DE Productos</t>
+        </is>
+      </c>
+      <c r="AF15" t="inlineStr">
+        <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="X15" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>FECHA DETRAC</t>
-        </is>
-      </c>
-      <c r="AA15" t="inlineStr">
-        <is>
-          <t>COD BANCO</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
-      <c r="AD15" t="inlineStr">
-        <is>
-          <t>7012</t>
-        </is>
-      </c>
-      <c r="AE15" t="inlineStr">
-        <is>
-          <t>VENTA DE Productos</t>
-        </is>
-      </c>
-      <c r="AF15" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
     </row>
@@ -2910,27 +2910,27 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>411</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2022-12-20</t>
+          <t>2023-02-18</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>20602389660</t>
+          <t>20100003351</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>EMPRESA GRUPO JIVO SOCIEDAD ANONIMA CERRADA</t>
+          <t>SERVICIOS INDUSTRIALES DE LA MARINA S.A.</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>AFECTO</t>
+          <t>1029.77</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -2945,12 +2945,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>NETO</t>
+          <t>1215.13</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>IGV</t>
+          <t>185.36</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -2975,7 +2975,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>1215.13</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
@@ -2985,7 +2985,7 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Aceptado</t>
+          <t>Aceptado con Obs.</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
@@ -3010,52 +3010,52 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>FECHA DETRAC</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>COD BANCO</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>EN EL COMPROBANTE</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>EN EL COMPROBANTE</t>
+        </is>
+      </c>
+      <c r="AD16" t="inlineStr">
+        <is>
+          <t>7012</t>
+        </is>
+      </c>
+      <c r="AE16" t="inlineStr">
+        <is>
+          <t>VENTA DE Productos</t>
+        </is>
+      </c>
+      <c r="AF16" t="inlineStr">
+        <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="X16" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
-      <c r="Y16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>FECHA DETRAC</t>
-        </is>
-      </c>
-      <c r="AA16" t="inlineStr">
-        <is>
-          <t>COD BANCO</t>
-        </is>
-      </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
-      <c r="AD16" t="inlineStr">
-        <is>
-          <t>7012</t>
-        </is>
-      </c>
-      <c r="AE16" t="inlineStr">
-        <is>
-          <t>VENTA DE Productos</t>
-        </is>
-      </c>
-      <c r="AF16" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
     </row>
@@ -3072,27 +3072,27 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>410</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2022-12-20</t>
+          <t>2023-02-18</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>20604475903</t>
+          <t>20100003351</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>NEGOCIOS CRONOS E.I.R.L.</t>
+          <t>SERVICIOS INDUSTRIALES DE LA MARINA S.A.</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>AFECTO</t>
+          <t>8150.9</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -3107,12 +3107,12 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>NETO</t>
+          <t>9618.06</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>IGV</t>
+          <t>1467.16</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -3137,7 +3137,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>9618.06</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
@@ -3147,7 +3147,7 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Aceptado</t>
+          <t>Aceptado con Obs.</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
@@ -3172,7 +3172,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
@@ -3234,27 +3234,27 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>409</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2022-12-20</t>
+          <t>2023-02-18</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>20354180911</t>
+          <t>20100003351</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>HALCON S.A.</t>
+          <t>SERVICIOS INDUSTRIALES DE LA MARINA S.A.</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>AFECTO</t>
+          <t>1029.77</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -3269,12 +3269,12 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>NETO</t>
+          <t>1215.13</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>IGV</t>
+          <t>185.36</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -3299,7 +3299,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>1215.13</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
@@ -3309,7 +3309,7 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Aceptado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
@@ -3379,7 +3379,7 @@
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3396,27 +3396,27 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>408</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2022-12-20</t>
+          <t>2023-02-17</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>20602717993</t>
+          <t>20100003351</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>FERRETERIA INDUSTRIAL THAIS E.I.R.L.</t>
+          <t>SERVICIOS INDUSTRIALES DE LA MARINA S.A.</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>AFECTO</t>
+          <t>8150.9</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -3431,12 +3431,12 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>NETO</t>
+          <t>9618.06</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>IGV</t>
+          <t>1467.16</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -3461,7 +3461,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>9618.06</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
@@ -3471,7 +3471,7 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Aceptado</t>
+          <t>Anulado</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
@@ -3496,52 +3496,52 @@
       </c>
       <c r="W19" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>FECHA DETRAC</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>COD BANCO</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>EN EL COMPROBANTE</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>EN EL COMPROBANTE</t>
+        </is>
+      </c>
+      <c r="AD19" t="inlineStr">
+        <is>
+          <t>7012</t>
+        </is>
+      </c>
+      <c r="AE19" t="inlineStr">
+        <is>
+          <t>VENTA DE Productos</t>
+        </is>
+      </c>
+      <c r="AF19" t="inlineStr">
+        <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="X19" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
-      <c r="Y19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>FECHA DETRAC</t>
-        </is>
-      </c>
-      <c r="AA19" t="inlineStr">
-        <is>
-          <t>COD BANCO</t>
-        </is>
-      </c>
-      <c r="AB19" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
-      <c r="AD19" t="inlineStr">
-        <is>
-          <t>7012</t>
-        </is>
-      </c>
-      <c r="AE19" t="inlineStr">
-        <is>
-          <t>VENTA DE Productos</t>
-        </is>
-      </c>
-      <c r="AF19" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
     </row>
@@ -3558,27 +3558,27 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>407</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2022-12-19</t>
+          <t>2023-02-17</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>20604475903</t>
+          <t>20603686498</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>NEGOCIOS CRONOS E.I.R.L.</t>
+          <t>MEGUI INVESTMENT S.A.C.</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>AFECTO</t>
+          <t>607.89</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -3593,12 +3593,12 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>NETO</t>
+          <t>717.31</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>IGV</t>
+          <t>109.42</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -3623,7 +3623,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>717.31</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
@@ -3703,7 +3703,7 @@
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -3720,27 +3720,27 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>406</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2022-12-19</t>
+          <t>2023-02-17</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>20603686498</t>
+          <t>20100003351</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>MEGUI INVESTMENT S.A.C.</t>
+          <t>SERVICIOS INDUSTRIALES DE LA MARINA S.A.</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>AFECTO</t>
+          <t>1029.77</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -3755,12 +3755,12 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>NETO</t>
+          <t>1215.13</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>IGV</t>
+          <t>185.36</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -3785,7 +3785,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>1215.13</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
@@ -3795,7 +3795,7 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Aceptado</t>
+          <t>Anulado</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
@@ -3820,52 +3820,52 @@
       </c>
       <c r="W21" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>FECHA DETRAC</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>COD BANCO</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>EN EL COMPROBANTE</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>EN EL COMPROBANTE</t>
+        </is>
+      </c>
+      <c r="AD21" t="inlineStr">
+        <is>
+          <t>7012</t>
+        </is>
+      </c>
+      <c r="AE21" t="inlineStr">
+        <is>
+          <t>VENTA DE Productos</t>
+        </is>
+      </c>
+      <c r="AF21" t="inlineStr">
+        <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="X21" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
-      <c r="Y21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>FECHA DETRAC</t>
-        </is>
-      </c>
-      <c r="AA21" t="inlineStr">
-        <is>
-          <t>COD BANCO</t>
-        </is>
-      </c>
-      <c r="AB21" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
-      <c r="AD21" t="inlineStr">
-        <is>
-          <t>7012</t>
-        </is>
-      </c>
-      <c r="AE21" t="inlineStr">
-        <is>
-          <t>VENTA DE Productos</t>
-        </is>
-      </c>
-      <c r="AF21" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
     </row>
@@ -3882,27 +3882,27 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>405</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2022-12-19</t>
+          <t>2023-02-17</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>20602389660</t>
+          <t>20100003351</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>EMPRESA GRUPO JIVO SOCIEDAD ANONIMA CERRADA</t>
+          <t>SERVICIOS INDUSTRIALES DE LA MARINA S.A.</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>AFECTO</t>
+          <t>869.58</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -3917,12 +3917,12 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>NETO</t>
+          <t>1026.1</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>IGV</t>
+          <t>156.52</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -3947,7 +3947,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>1026.1</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
@@ -3957,7 +3957,7 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Aceptado</t>
+          <t>Aceptado con Obs.</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
@@ -3982,7 +3982,7 @@
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
@@ -4044,27 +4044,27 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>404</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2022-12-17</t>
+          <t>2023-02-17</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10466607598</t>
+          <t>20601825491</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>CORTIJO ELORREAGA KAREN LISBETH</t>
+          <t>FERSERVICE NAVAL E INDUSTRIAL E.I.R.L.</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>AFECTO</t>
+          <t>5190.7</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -4079,12 +4079,12 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>NETO</t>
+          <t>6125.03</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>IGV</t>
+          <t>934.33</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -4109,7 +4109,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>6125.03</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
@@ -4206,27 +4206,27 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>403</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2022-12-17</t>
+          <t>2023-02-17</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10329884762</t>
+          <t>20100003351</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>SANCHEZ CONDORI GRISELDA SOFIA</t>
+          <t>SERVICIOS INDUSTRIALES DE LA MARINA S.A.</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>AFECTO</t>
+          <t>869.58</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -4241,12 +4241,12 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>NETO</t>
+          <t>1026.1</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>IGV</t>
+          <t>156.52</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -4271,7 +4271,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>1026.1</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
@@ -4281,7 +4281,7 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Anulado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
@@ -4306,52 +4306,52 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>FECHA DETRAC</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>COD BANCO</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>EN EL COMPROBANTE</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>EN EL COMPROBANTE</t>
+        </is>
+      </c>
+      <c r="AD24" t="inlineStr">
+        <is>
+          <t>7012</t>
+        </is>
+      </c>
+      <c r="AE24" t="inlineStr">
+        <is>
+          <t>VENTA DE Productos</t>
+        </is>
+      </c>
+      <c r="AF24" t="inlineStr">
+        <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="X24" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
-      <c r="Y24" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z24" t="inlineStr">
-        <is>
-          <t>FECHA DETRAC</t>
-        </is>
-      </c>
-      <c r="AA24" t="inlineStr">
-        <is>
-          <t>COD BANCO</t>
-        </is>
-      </c>
-      <c r="AB24" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
-      <c r="AC24" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
-      <c r="AD24" t="inlineStr">
-        <is>
-          <t>7012</t>
-        </is>
-      </c>
-      <c r="AE24" t="inlineStr">
-        <is>
-          <t>VENTA DE Productos</t>
-        </is>
-      </c>
-      <c r="AF24" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
     </row>
@@ -4368,27 +4368,27 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>402</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2022-12-15</t>
+          <t>2023-02-17</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>20445526127</t>
+          <t>20602817670</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>SERVICIOS INDUSTRIALES HALAVISI S.A.C.</t>
+          <t>INGENIERIA Y SERVICIOS MECANICOS PERU S.A.C. - INSERMEC PERU S.A.C.</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>AFECTO</t>
+          <t>363.82</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -4403,12 +4403,12 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>NETO</t>
+          <t>429.31</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>IGV</t>
+          <t>65.49</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -4433,7 +4433,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>429.31</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
@@ -4530,27 +4530,27 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>401</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2022-12-15</t>
+          <t>2023-02-15</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>20445526127</t>
+          <t>10329334657</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>SERVICIOS INDUSTRIALES HALAVISI S.A.C.</t>
+          <t>VELASQUEZ NUÑEZ SILVIA DEL PILAR</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>AFECTO</t>
+          <t>9058.44</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -4565,12 +4565,12 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>NETO</t>
+          <t>10688.96</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>IGV</t>
+          <t>1630.52</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -4595,7 +4595,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>10688.96</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
@@ -4692,27 +4692,27 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>400</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2022-12-15</t>
+          <t>2023-02-14</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>20609276828</t>
+          <t>20487853446</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>SOLDER GROUP S.A.C.</t>
+          <t>ARENRUSTIK S.A.C.</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>AFECTO</t>
+          <t>2497.44</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -4727,12 +4727,12 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>NETO</t>
+          <t>2946.98</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>IGV</t>
+          <t>449.54</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -4757,7 +4757,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>2946.98</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
@@ -4854,27 +4854,27 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>399</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2022-12-14</t>
+          <t>2023-02-14</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>20338054115</t>
+          <t>20487853446</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>AUSTRAL GROUP S.A.A</t>
+          <t>ARENRUSTIK S.A.C.</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>AFECTO</t>
+          <t>2497.44</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -4889,12 +4889,12 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>NETO</t>
+          <t>2946.98</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>IGV</t>
+          <t>449.54</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -4919,7 +4919,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>2946.98</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
@@ -4927,11 +4927,6 @@
           <t>0,00</t>
         </is>
       </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>Aceptado con Obs.</t>
-        </is>
-      </c>
       <c r="S28" t="inlineStr">
         <is>
           <t>0</t>
@@ -4954,7 +4949,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="X28" t="inlineStr">
@@ -4994,7 +4989,7 @@
       </c>
       <c r="AE28" t="inlineStr">
         <is>
-          <t>VENTA DE Servicios</t>
+          <t>VENTA DE Productos</t>
         </is>
       </c>
       <c r="AF28" t="inlineStr">
@@ -5016,27 +5011,27 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>398</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2022-12-12</t>
+          <t>2023-02-14</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>20445526127</t>
+          <t>20142053498</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>SERVICIOS INDUSTRIALES HALAVISI S.A.C.</t>
+          <t>PESQUERA BETHEL S.A.</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>AFECTO</t>
+          <t>1744.31</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -5051,12 +5046,12 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>NETO</t>
+          <t>2058.29</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>IGV</t>
+          <t>313.98</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -5081,7 +5076,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>2058.29</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
@@ -5161,7 +5156,7 @@
       </c>
       <c r="AF29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -5178,27 +5173,27 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>397</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2022-12-10</t>
+          <t>2023-02-14</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>20602817670</t>
+          <t>20609664151</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>INGENIERIA Y SERVICIOS MECANICOS PERU S.A.C. - INSERMEC PERU S.A.C.</t>
+          <t>ALLMAR S.A.C.</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>AFECTO</t>
+          <t>370.45</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -5213,12 +5208,12 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>NETO</t>
+          <t>437.13</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>IGV</t>
+          <t>66.68</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -5243,7 +5238,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>437.13</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
@@ -5323,7 +5318,7 @@
       </c>
       <c r="AF30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -5340,27 +5335,27 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>396</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2022-12-10</t>
+          <t>2023-02-14</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>20607410713</t>
+          <t>20603686498</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>ASTILLEROS LUGUENSI S.A.C.</t>
+          <t>MEGUI INVESTMENT S.A.C.</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>AFECTO</t>
+          <t>2337.24</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -5375,12 +5370,12 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>NETO</t>
+          <t>2757.94</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>IGV</t>
+          <t>420.7</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -5405,7 +5400,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>2757.94</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
@@ -5440,52 +5435,52 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>FECHA DETRAC</t>
+        </is>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>COD BANCO</t>
+        </is>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>EN EL COMPROBANTE</t>
+        </is>
+      </c>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>EN EL COMPROBANTE</t>
+        </is>
+      </c>
+      <c r="AD31" t="inlineStr">
+        <is>
+          <t>7012</t>
+        </is>
+      </c>
+      <c r="AE31" t="inlineStr">
+        <is>
+          <t>VENTA DE Productos</t>
+        </is>
+      </c>
+      <c r="AF31" t="inlineStr">
+        <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="X31" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
-      <c r="Y31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z31" t="inlineStr">
-        <is>
-          <t>FECHA DETRAC</t>
-        </is>
-      </c>
-      <c r="AA31" t="inlineStr">
-        <is>
-          <t>COD BANCO</t>
-        </is>
-      </c>
-      <c r="AB31" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
-      <c r="AC31" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
-      <c r="AD31" t="inlineStr">
-        <is>
-          <t>7012</t>
-        </is>
-      </c>
-      <c r="AE31" t="inlineStr">
-        <is>
-          <t>VENTA DE Productos</t>
-        </is>
-      </c>
-      <c r="AF31" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
@@ -5502,27 +5497,27 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>395</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2022-12-09</t>
+          <t>2023-02-13</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>20380336384</t>
+          <t>20601799309</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>PESQUERA EXALMAR S.A.A.</t>
+          <t>INVERSIONES BJES E.I.R.L.</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>AFECTO</t>
+          <t>416.94</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -5537,12 +5532,12 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>NETO</t>
+          <t>491.99</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>IGV</t>
+          <t>75.05</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -5567,7 +5562,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>491.99</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
@@ -5577,7 +5572,7 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Aceptado con Obs.</t>
+          <t>Aceptado</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
@@ -5602,7 +5597,7 @@
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="X32" t="inlineStr">
@@ -5664,27 +5659,27 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>394</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2022-12-08</t>
+          <t>2023-02-13</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>20205572229</t>
+          <t>10165890120</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>INDUSTRIAL PESQUERA SANTA MONICA S.A.</t>
+          <t>HUAMANCHUMO MATEO VDA DE SIPION YOLANDA</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>AFECTO</t>
+          <t>65.07</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -5699,12 +5694,12 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>NETO</t>
+          <t>76.78</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>IGV</t>
+          <t>11.71</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -5729,7 +5724,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>76.78</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
@@ -5764,7 +5759,7 @@
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="X33" t="inlineStr">
@@ -5809,7 +5804,7 @@
       </c>
       <c r="AF33" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5826,27 +5821,27 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>393</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2022-12-07</t>
+          <t>2023-02-11</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>20487853446</t>
+          <t>20605983325</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>ARENRUSTIK S.A.C.</t>
+          <t>CORPORACION NAUTICA S.A.C.</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>AFECTO</t>
+          <t>6220.35</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -5861,12 +5856,12 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>NETO</t>
+          <t>7340.01</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>IGV</t>
+          <t>1119.66</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -5891,7 +5886,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>7340.01</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
@@ -5971,7 +5966,7 @@
       </c>
       <c r="AF34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -5988,27 +5983,27 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>392</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2022-12-07</t>
+          <t>2023-02-11</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>20487853446</t>
+          <t>20603686498</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>ARENRUSTIK S.A.C.</t>
+          <t>MEGUI INVESTMENT S.A.C.</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>AFECTO</t>
+          <t>273.44</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -6023,12 +6018,12 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>NETO</t>
+          <t>322.66</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>IGV</t>
+          <t>49.22</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -6053,7 +6048,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>322.66</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
@@ -6061,6 +6056,11 @@
           <t>0,00</t>
         </is>
       </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>Aceptado</t>
+        </is>
+      </c>
       <c r="S35" t="inlineStr">
         <is>
           <t>0</t>
@@ -6128,7 +6128,7 @@
       </c>
       <c r="AF35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -6145,27 +6145,27 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>391</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2022-12-07</t>
+          <t>2023-02-10</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>20602389660</t>
+          <t>20487853446</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>EMPRESA GRUPO JIVO SOCIEDAD ANONIMA CERRADA</t>
+          <t>ARENRUSTIK S.A.C.</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>AFECTO</t>
+          <t>11725.36</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -6180,12 +6180,12 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>NETO</t>
+          <t>13835.92</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>IGV</t>
+          <t>2110.56</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -6210,7 +6210,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>13835.92</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
@@ -6290,7 +6290,7 @@
       </c>
       <c r="AF36" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -6307,27 +6307,27 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>390</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2022-12-06</t>
+          <t>2023-02-10</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>20607410713</t>
+          <t>20479977390</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>ASTILLEROS LUGUENSI S.A.C.</t>
+          <t>AUROMAR SOCIEDAD ANONIMA CERRADA</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>AFECTO</t>
+          <t>694.6</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -6342,12 +6342,12 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>NETO</t>
+          <t>819.63</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>IGV</t>
+          <t>125.03</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -6372,7 +6372,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>819.63</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
@@ -6382,7 +6382,7 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Anulado</t>
+          <t>Aceptado</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
@@ -6407,52 +6407,52 @@
       </c>
       <c r="W37" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>FECHA DETRAC</t>
+        </is>
+      </c>
+      <c r="AA37" t="inlineStr">
+        <is>
+          <t>COD BANCO</t>
+        </is>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>EN EL COMPROBANTE</t>
+        </is>
+      </c>
+      <c r="AC37" t="inlineStr">
+        <is>
+          <t>EN EL COMPROBANTE</t>
+        </is>
+      </c>
+      <c r="AD37" t="inlineStr">
+        <is>
+          <t>7012</t>
+        </is>
+      </c>
+      <c r="AE37" t="inlineStr">
+        <is>
+          <t>VENTA DE Productos</t>
+        </is>
+      </c>
+      <c r="AF37" t="inlineStr">
+        <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="X37" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
-      <c r="Y37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z37" t="inlineStr">
-        <is>
-          <t>FECHA DETRAC</t>
-        </is>
-      </c>
-      <c r="AA37" t="inlineStr">
-        <is>
-          <t>COD BANCO</t>
-        </is>
-      </c>
-      <c r="AB37" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
-      <c r="AC37" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
-      <c r="AD37" t="inlineStr">
-        <is>
-          <t>7012</t>
-        </is>
-      </c>
-      <c r="AE37" t="inlineStr">
-        <is>
-          <t>VENTA DE Productos</t>
-        </is>
-      </c>
-      <c r="AF37" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
@@ -6469,27 +6469,27 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>389</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2022-12-03</t>
+          <t>2023-02-09</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>20602389660</t>
+          <t>10329334657</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>EMPRESA GRUPO JIVO SOCIEDAD ANONIMA CERRADA</t>
+          <t>VELASQUEZ NUÑEZ SILVIA DEL PILAR</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>AFECTO</t>
+          <t>4150.8</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -6504,12 +6504,12 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>NETO</t>
+          <t>4897.94</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>IGV</t>
+          <t>747.14</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -6534,7 +6534,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>4897.94</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
@@ -6614,7 +6614,7 @@
       </c>
       <c r="AF38" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -6631,27 +6631,27 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>388</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2022-12-02</t>
+          <t>2023-02-09</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>20607655848</t>
+          <t>20606015195</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>COPESFA E.I.R.L.</t>
+          <t>CORPORACION LIBRIARY S.A.C.</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>AFECTO</t>
+          <t>1236.05</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -6666,12 +6666,12 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>NETO</t>
+          <t>1458.54</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>IGV</t>
+          <t>222.49</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -6696,7 +6696,7 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>1458.54</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
@@ -6776,7 +6776,7 @@
       </c>
       <c r="AF39" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -6793,27 +6793,27 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>387</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2022-12-02</t>
+          <t>2023-02-08</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>20445634108</t>
+          <t>20602389660</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y GRUAS CHIMBOTE S.R.L.</t>
+          <t>EMPRESA GRUPO JIVO SOCIEDAD ANONIMA CERRADA</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>AFECTO</t>
+          <t>2134.95</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -6828,12 +6828,12 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>NETO</t>
+          <t>2519.24</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>IGV</t>
+          <t>384.29</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -6858,7 +6858,7 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>2519.24</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
@@ -6937,6 +6937,3226 @@
         </is>
       </c>
       <c r="AF40" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>F001</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>386</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2023-02-08</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>20601825491</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>FERSERVICE NAVAL E INDUSTRIAL E.I.R.L.</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>3933.81</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>4641.9</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>708.09</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>4641.9</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>Aceptado</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z41" t="inlineStr">
+        <is>
+          <t>FECHA DETRAC</t>
+        </is>
+      </c>
+      <c r="AA41" t="inlineStr">
+        <is>
+          <t>COD BANCO</t>
+        </is>
+      </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>EN EL COMPROBANTE</t>
+        </is>
+      </c>
+      <c r="AC41" t="inlineStr">
+        <is>
+          <t>EN EL COMPROBANTE</t>
+        </is>
+      </c>
+      <c r="AD41" t="inlineStr">
+        <is>
+          <t>7012</t>
+        </is>
+      </c>
+      <c r="AE41" t="inlineStr">
+        <is>
+          <t>VENTA DE Productos</t>
+        </is>
+      </c>
+      <c r="AF41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>F001</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>385</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2023-02-08</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>20361348011</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>EMPRESA PESQUERA MARIA DEL ROCIO SRLTDA</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>204.36</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>241.14</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>36.78</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>241.14</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>Aceptado</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="Y42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z42" t="inlineStr">
+        <is>
+          <t>FECHA DETRAC</t>
+        </is>
+      </c>
+      <c r="AA42" t="inlineStr">
+        <is>
+          <t>COD BANCO</t>
+        </is>
+      </c>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>EN EL COMPROBANTE</t>
+        </is>
+      </c>
+      <c r="AC42" t="inlineStr">
+        <is>
+          <t>EN EL COMPROBANTE</t>
+        </is>
+      </c>
+      <c r="AD42" t="inlineStr">
+        <is>
+          <t>7012</t>
+        </is>
+      </c>
+      <c r="AE42" t="inlineStr">
+        <is>
+          <t>VENTA DE Productos</t>
+        </is>
+      </c>
+      <c r="AF42" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>F001</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>384</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2023-02-08</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>10329884762</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>SANCHEZ CONDORI GRISELDA SOFIA</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>3354.8</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>3958.66</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>603.86</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>3958.66</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>Aceptado</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="Y43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z43" t="inlineStr">
+        <is>
+          <t>FECHA DETRAC</t>
+        </is>
+      </c>
+      <c r="AA43" t="inlineStr">
+        <is>
+          <t>COD BANCO</t>
+        </is>
+      </c>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>EN EL COMPROBANTE</t>
+        </is>
+      </c>
+      <c r="AC43" t="inlineStr">
+        <is>
+          <t>EN EL COMPROBANTE</t>
+        </is>
+      </c>
+      <c r="AD43" t="inlineStr">
+        <is>
+          <t>7012</t>
+        </is>
+      </c>
+      <c r="AE43" t="inlineStr">
+        <is>
+          <t>VENTA DE Productos</t>
+        </is>
+      </c>
+      <c r="AF43" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>F001</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>383</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2023-02-07</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>20603686498</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>MEGUI INVESTMENT S.A.C.</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>259.53</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>306.25</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>46.72</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>306.25</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>Aceptado</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="Y44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z44" t="inlineStr">
+        <is>
+          <t>FECHA DETRAC</t>
+        </is>
+      </c>
+      <c r="AA44" t="inlineStr">
+        <is>
+          <t>COD BANCO</t>
+        </is>
+      </c>
+      <c r="AB44" t="inlineStr">
+        <is>
+          <t>EN EL COMPROBANTE</t>
+        </is>
+      </c>
+      <c r="AC44" t="inlineStr">
+        <is>
+          <t>EN EL COMPROBANTE</t>
+        </is>
+      </c>
+      <c r="AD44" t="inlineStr">
+        <is>
+          <t>7012</t>
+        </is>
+      </c>
+      <c r="AE44" t="inlineStr">
+        <is>
+          <t>VENTA DE Productos</t>
+        </is>
+      </c>
+      <c r="AF44" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>F001</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>382</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2023-02-07</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>20601799309</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>INVERSIONES BJES E.I.R.L.</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>208.47</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>245.99</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>37.52</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>245.99</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>Aceptado</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="Y45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z45" t="inlineStr">
+        <is>
+          <t>FECHA DETRAC</t>
+        </is>
+      </c>
+      <c r="AA45" t="inlineStr">
+        <is>
+          <t>COD BANCO</t>
+        </is>
+      </c>
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>EN EL COMPROBANTE</t>
+        </is>
+      </c>
+      <c r="AC45" t="inlineStr">
+        <is>
+          <t>EN EL COMPROBANTE</t>
+        </is>
+      </c>
+      <c r="AD45" t="inlineStr">
+        <is>
+          <t>7012</t>
+        </is>
+      </c>
+      <c r="AE45" t="inlineStr">
+        <is>
+          <t>VENTA DE Productos</t>
+        </is>
+      </c>
+      <c r="AF45" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>F001</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>381</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>20601825491</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>FERSERVICE NAVAL E INDUSTRIAL E.I.R.L.</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>1365.53</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>1611.33</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>245.8</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>1611.33</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>Aceptado</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="Y46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z46" t="inlineStr">
+        <is>
+          <t>FECHA DETRAC</t>
+        </is>
+      </c>
+      <c r="AA46" t="inlineStr">
+        <is>
+          <t>COD BANCO</t>
+        </is>
+      </c>
+      <c r="AB46" t="inlineStr">
+        <is>
+          <t>EN EL COMPROBANTE</t>
+        </is>
+      </c>
+      <c r="AC46" t="inlineStr">
+        <is>
+          <t>EN EL COMPROBANTE</t>
+        </is>
+      </c>
+      <c r="AD46" t="inlineStr">
+        <is>
+          <t>7012</t>
+        </is>
+      </c>
+      <c r="AE46" t="inlineStr">
+        <is>
+          <t>VENTA DE Productos</t>
+        </is>
+      </c>
+      <c r="AF46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>F001</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>380</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2023-02-06</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>20602389660</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>EMPRESA GRUPO JIVO SOCIEDAD ANONIMA CERRADA</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>57.36</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>67.68</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>10.32</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>67.68</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>Aceptado</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="Y47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z47" t="inlineStr">
+        <is>
+          <t>FECHA DETRAC</t>
+        </is>
+      </c>
+      <c r="AA47" t="inlineStr">
+        <is>
+          <t>COD BANCO</t>
+        </is>
+      </c>
+      <c r="AB47" t="inlineStr">
+        <is>
+          <t>EN EL COMPROBANTE</t>
+        </is>
+      </c>
+      <c r="AC47" t="inlineStr">
+        <is>
+          <t>EN EL COMPROBANTE</t>
+        </is>
+      </c>
+      <c r="AD47" t="inlineStr">
+        <is>
+          <t>7012</t>
+        </is>
+      </c>
+      <c r="AE47" t="inlineStr">
+        <is>
+          <t>VENTA DE Productos</t>
+        </is>
+      </c>
+      <c r="AF47" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>F001</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>379</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2023-02-04</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>20603686498</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>MEGUI INVESTMENT S.A.C.</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>138.96</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>163.97</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>25.01</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>163.97</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>Aceptado</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="Y48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z48" t="inlineStr">
+        <is>
+          <t>FECHA DETRAC</t>
+        </is>
+      </c>
+      <c r="AA48" t="inlineStr">
+        <is>
+          <t>COD BANCO</t>
+        </is>
+      </c>
+      <c r="AB48" t="inlineStr">
+        <is>
+          <t>EN EL COMPROBANTE</t>
+        </is>
+      </c>
+      <c r="AC48" t="inlineStr">
+        <is>
+          <t>EN EL COMPROBANTE</t>
+        </is>
+      </c>
+      <c r="AD48" t="inlineStr">
+        <is>
+          <t>7012</t>
+        </is>
+      </c>
+      <c r="AE48" t="inlineStr">
+        <is>
+          <t>VENTA DE Productos</t>
+        </is>
+      </c>
+      <c r="AF48" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>F001</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>378</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2023-02-03</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>20601799309</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>INVERSIONES BJES E.I.R.L.</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>112.67</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>132.95</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>20.28</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>132.95</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>Aceptado</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="Y49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z49" t="inlineStr">
+        <is>
+          <t>FECHA DETRAC</t>
+        </is>
+      </c>
+      <c r="AA49" t="inlineStr">
+        <is>
+          <t>COD BANCO</t>
+        </is>
+      </c>
+      <c r="AB49" t="inlineStr">
+        <is>
+          <t>EN EL COMPROBANTE</t>
+        </is>
+      </c>
+      <c r="AC49" t="inlineStr">
+        <is>
+          <t>EN EL COMPROBANTE</t>
+        </is>
+      </c>
+      <c r="AD49" t="inlineStr">
+        <is>
+          <t>7012</t>
+        </is>
+      </c>
+      <c r="AE49" t="inlineStr">
+        <is>
+          <t>VENTA DE Productos</t>
+        </is>
+      </c>
+      <c r="AF49" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>F001</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>377</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2023-02-03</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>20602389660</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>EMPRESA GRUPO JIVO SOCIEDAD ANONIMA CERRADA</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>27.89</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>32.91</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>32.91</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>Aceptado</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="Y50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z50" t="inlineStr">
+        <is>
+          <t>FECHA DETRAC</t>
+        </is>
+      </c>
+      <c r="AA50" t="inlineStr">
+        <is>
+          <t>COD BANCO</t>
+        </is>
+      </c>
+      <c r="AB50" t="inlineStr">
+        <is>
+          <t>EN EL COMPROBANTE</t>
+        </is>
+      </c>
+      <c r="AC50" t="inlineStr">
+        <is>
+          <t>EN EL COMPROBANTE</t>
+        </is>
+      </c>
+      <c r="AD50" t="inlineStr">
+        <is>
+          <t>7012</t>
+        </is>
+      </c>
+      <c r="AE50" t="inlineStr">
+        <is>
+          <t>VENTA DE Productos</t>
+        </is>
+      </c>
+      <c r="AF50" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>F001</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>376</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2023-02-02</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>20603686498</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>MEGUI INVESTMENT S.A.C.</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>576.25</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>679.97</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>103.72</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>679.97</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>Aceptado</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="Y51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z51" t="inlineStr">
+        <is>
+          <t>FECHA DETRAC</t>
+        </is>
+      </c>
+      <c r="AA51" t="inlineStr">
+        <is>
+          <t>COD BANCO</t>
+        </is>
+      </c>
+      <c r="AB51" t="inlineStr">
+        <is>
+          <t>EN EL COMPROBANTE</t>
+        </is>
+      </c>
+      <c r="AC51" t="inlineStr">
+        <is>
+          <t>EN EL COMPROBANTE</t>
+        </is>
+      </c>
+      <c r="AD51" t="inlineStr">
+        <is>
+          <t>7012</t>
+        </is>
+      </c>
+      <c r="AE51" t="inlineStr">
+        <is>
+          <t>VENTA DE Productos</t>
+        </is>
+      </c>
+      <c r="AF51" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>F001</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2023-02-02</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>20541686321</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>INVERSIONES CASALI EIRL</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>5837.02</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>6887.68</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>1050.66</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>6887.68</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>Aceptado</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="Y52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z52" t="inlineStr">
+        <is>
+          <t>FECHA DETRAC</t>
+        </is>
+      </c>
+      <c r="AA52" t="inlineStr">
+        <is>
+          <t>COD BANCO</t>
+        </is>
+      </c>
+      <c r="AB52" t="inlineStr">
+        <is>
+          <t>EN EL COMPROBANTE</t>
+        </is>
+      </c>
+      <c r="AC52" t="inlineStr">
+        <is>
+          <t>EN EL COMPROBANTE</t>
+        </is>
+      </c>
+      <c r="AD52" t="inlineStr">
+        <is>
+          <t>7012</t>
+        </is>
+      </c>
+      <c r="AE52" t="inlineStr">
+        <is>
+          <t>VENTA DE Productos</t>
+        </is>
+      </c>
+      <c r="AF52" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>F001</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>374</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2023-02-02</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>20602717993</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>FERRETERIA INDUSTRIAL THAIS E.I.R.L.</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>7077.6</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>8351.57</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>1273.97</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>8351.57</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>Aceptado</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="Y53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z53" t="inlineStr">
+        <is>
+          <t>FECHA DETRAC</t>
+        </is>
+      </c>
+      <c r="AA53" t="inlineStr">
+        <is>
+          <t>COD BANCO</t>
+        </is>
+      </c>
+      <c r="AB53" t="inlineStr">
+        <is>
+          <t>EN EL COMPROBANTE</t>
+        </is>
+      </c>
+      <c r="AC53" t="inlineStr">
+        <is>
+          <t>EN EL COMPROBANTE</t>
+        </is>
+      </c>
+      <c r="AD53" t="inlineStr">
+        <is>
+          <t>7012</t>
+        </is>
+      </c>
+      <c r="AE53" t="inlineStr">
+        <is>
+          <t>VENTA DE Productos</t>
+        </is>
+      </c>
+      <c r="AF53" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>F001</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>373</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2023-02-01</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>20601799309</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>INVERSIONES BJES E.I.R.L.</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>47.9</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>56.52</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>56.52</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>Aceptado</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="Y54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z54" t="inlineStr">
+        <is>
+          <t>FECHA DETRAC</t>
+        </is>
+      </c>
+      <c r="AA54" t="inlineStr">
+        <is>
+          <t>COD BANCO</t>
+        </is>
+      </c>
+      <c r="AB54" t="inlineStr">
+        <is>
+          <t>EN EL COMPROBANTE</t>
+        </is>
+      </c>
+      <c r="AC54" t="inlineStr">
+        <is>
+          <t>EN EL COMPROBANTE</t>
+        </is>
+      </c>
+      <c r="AD54" t="inlineStr">
+        <is>
+          <t>7012</t>
+        </is>
+      </c>
+      <c r="AE54" t="inlineStr">
+        <is>
+          <t>VENTA DE Productos</t>
+        </is>
+      </c>
+      <c r="AF54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>F001</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>372</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2023-02-01</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>20601799309</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>INVERSIONES BJES E.I.R.L.</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>40.44</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>47.72</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>47.72</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>Aceptado</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="Y55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z55" t="inlineStr">
+        <is>
+          <t>FECHA DETRAC</t>
+        </is>
+      </c>
+      <c r="AA55" t="inlineStr">
+        <is>
+          <t>COD BANCO</t>
+        </is>
+      </c>
+      <c r="AB55" t="inlineStr">
+        <is>
+          <t>EN EL COMPROBANTE</t>
+        </is>
+      </c>
+      <c r="AC55" t="inlineStr">
+        <is>
+          <t>EN EL COMPROBANTE</t>
+        </is>
+      </c>
+      <c r="AD55" t="inlineStr">
+        <is>
+          <t>7012</t>
+        </is>
+      </c>
+      <c r="AE55" t="inlineStr">
+        <is>
+          <t>VENTA DE Productos</t>
+        </is>
+      </c>
+      <c r="AF55" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>F001</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>371</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2023-02-01</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>20602389660</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>EMPRESA GRUPO JIVO SOCIEDAD ANONIMA CERRADA</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>777.8</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>917.8</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>140.0</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>917.8</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>Aceptado</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W56" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="Y56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z56" t="inlineStr">
+        <is>
+          <t>FECHA DETRAC</t>
+        </is>
+      </c>
+      <c r="AA56" t="inlineStr">
+        <is>
+          <t>COD BANCO</t>
+        </is>
+      </c>
+      <c r="AB56" t="inlineStr">
+        <is>
+          <t>EN EL COMPROBANTE</t>
+        </is>
+      </c>
+      <c r="AC56" t="inlineStr">
+        <is>
+          <t>EN EL COMPROBANTE</t>
+        </is>
+      </c>
+      <c r="AD56" t="inlineStr">
+        <is>
+          <t>7012</t>
+        </is>
+      </c>
+      <c r="AE56" t="inlineStr">
+        <is>
+          <t>VENTA DE Productos</t>
+        </is>
+      </c>
+      <c r="AF56" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>F001</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>370</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2023-02-01</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>10329334657</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>VELASQUEZ NUÑEZ SILVIA DEL PILAR</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>9361.25</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>11046.27</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>1685.02</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>11046.27</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>Aceptado</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="Y57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z57" t="inlineStr">
+        <is>
+          <t>FECHA DETRAC</t>
+        </is>
+      </c>
+      <c r="AA57" t="inlineStr">
+        <is>
+          <t>COD BANCO</t>
+        </is>
+      </c>
+      <c r="AB57" t="inlineStr">
+        <is>
+          <t>EN EL COMPROBANTE</t>
+        </is>
+      </c>
+      <c r="AC57" t="inlineStr">
+        <is>
+          <t>EN EL COMPROBANTE</t>
+        </is>
+      </c>
+      <c r="AD57" t="inlineStr">
+        <is>
+          <t>7012</t>
+        </is>
+      </c>
+      <c r="AE57" t="inlineStr">
+        <is>
+          <t>VENTA DE Productos</t>
+        </is>
+      </c>
+      <c r="AF57" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>B001</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2023-02-20</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>407.81</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>481.22</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>73.41</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>481.22</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>Aceptado</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="Y58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z58" t="inlineStr">
+        <is>
+          <t>FECHA DETRAC</t>
+        </is>
+      </c>
+      <c r="AA58" t="inlineStr">
+        <is>
+          <t>COD BANCO</t>
+        </is>
+      </c>
+      <c r="AB58" t="inlineStr">
+        <is>
+          <t>EN EL COMPROBANTE</t>
+        </is>
+      </c>
+      <c r="AC58" t="inlineStr">
+        <is>
+          <t>EN EL COMPROBANTE</t>
+        </is>
+      </c>
+      <c r="AD58" t="inlineStr">
+        <is>
+          <t>7012</t>
+        </is>
+      </c>
+      <c r="AE58" t="inlineStr">
+        <is>
+          <t>VENTA DE Productos</t>
+        </is>
+      </c>
+      <c r="AF58" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>B001</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2023-02-20</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>407.81</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>481.22</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>73.41</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>481.22</t>
+        </is>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>Rechazado</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="Y59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z59" t="inlineStr">
+        <is>
+          <t>FECHA DETRAC</t>
+        </is>
+      </c>
+      <c r="AA59" t="inlineStr">
+        <is>
+          <t>COD BANCO</t>
+        </is>
+      </c>
+      <c r="AB59" t="inlineStr">
+        <is>
+          <t>EN EL COMPROBANTE</t>
+        </is>
+      </c>
+      <c r="AC59" t="inlineStr">
+        <is>
+          <t>EN EL COMPROBANTE</t>
+        </is>
+      </c>
+      <c r="AD59" t="inlineStr">
+        <is>
+          <t>7012</t>
+        </is>
+      </c>
+      <c r="AE59" t="inlineStr">
+        <is>
+          <t>VENTA DE Productos</t>
+        </is>
+      </c>
+      <c r="AF59" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>FNC1</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2023-02-01</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>20602389660</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>EMPRESA GRUPO JIVO SOCIEDAD ANONIMA CERRADA</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>777.8</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>917.8</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>140.0</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>917.8</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>Aceptado</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>F001</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>0367</t>
+        </is>
+      </c>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="Y60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z60" t="inlineStr">
+        <is>
+          <t>FECHA DETRAC</t>
+        </is>
+      </c>
+      <c r="AA60" t="inlineStr">
+        <is>
+          <t>COD BANCO</t>
+        </is>
+      </c>
+      <c r="AB60" t="inlineStr">
+        <is>
+          <t>EN EL COMPROBANTE</t>
+        </is>
+      </c>
+      <c r="AC60" t="inlineStr">
+        <is>
+          <t>EN EL COMPROBANTE</t>
+        </is>
+      </c>
+      <c r="AD60" t="inlineStr">
+        <is>
+          <t>7012</t>
+        </is>
+      </c>
+      <c r="AE60" t="inlineStr">
+        <is>
+          <t>Nota de credito</t>
+        </is>
+      </c>
+      <c r="AF60" t="inlineStr">
         <is>
           <t>2</t>
         </is>

--- a/info_excel.xlsx
+++ b/info_excel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF60"/>
+  <dimension ref="A1:AF41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -642,27 +642,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>299</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2023-02-24</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>10328246657</t>
+          <t>20603686498</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>NEYRA LUJAN SANTOS TERESITA</t>
+          <t>MEGUI INVESTMENT S.A.C.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3929.64</t>
+          <t>107.94</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -677,12 +677,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>4636.98</t>
+          <t>127.37</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>707.34</t>
+          <t>19.43</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -707,7 +707,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>4636.98</t>
+          <t>127.37</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -715,11 +715,6 @@
           <t>0,00</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>Aceptado</t>
-        </is>
-      </c>
       <c r="S2" t="inlineStr">
         <is>
           <t>0</t>
@@ -765,16 +760,6 @@
           <t>COD BANCO</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
       <c r="AD2" t="inlineStr">
         <is>
           <t>7012</t>
@@ -782,12 +767,12 @@
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>VENTA DE Productos</t>
+          <t>VENTA DE BIENES</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -804,27 +789,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>298</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2023-02-24</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>10165986780</t>
+          <t>20609395541</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>ARROYO CASTRO MARCELINO</t>
+          <t>PESQUERA CONCEPCION S.A.C.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>416.51</t>
+          <t>751.04</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -839,12 +824,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>491.48</t>
+          <t>886.23</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>74.97</t>
+          <t>135.19</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -869,7 +854,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>491.48</t>
+          <t>886.23</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -877,11 +862,6 @@
           <t>0,00</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>Aceptado</t>
-        </is>
-      </c>
       <c r="S3" t="inlineStr">
         <is>
           <t>0</t>
@@ -927,16 +907,6 @@
           <t>COD BANCO</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
       <c r="AD3" t="inlineStr">
         <is>
           <t>7012</t>
@@ -944,12 +914,12 @@
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>VENTA DE Productos</t>
+          <t>VENTA DE BIENES</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -966,27 +936,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>297</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2023-02-23</t>
+          <t>2022-12-29</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>20602817670</t>
+          <t>20603686498</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>INGENIERIA Y SERVICIOS MECANICOS PERU S.A.C. - INSERMEC PERU S.A.C.</t>
+          <t>MEGUI INVESTMENT S.A.C.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>359.97</t>
+          <t>1065.42</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -1001,12 +971,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>424.76</t>
+          <t>1257.2</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>64.79</t>
+          <t>191.78</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -1031,7 +1001,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>424.76</t>
+          <t>1257.2</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -1039,11 +1009,6 @@
           <t>0,00</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>Aceptado</t>
-        </is>
-      </c>
       <c r="S4" t="inlineStr">
         <is>
           <t>0</t>
@@ -1089,16 +1054,6 @@
           <t>COD BANCO</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
       <c r="AD4" t="inlineStr">
         <is>
           <t>7012</t>
@@ -1106,12 +1061,12 @@
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>VENTA DE Productos</t>
+          <t>VENTA DE BIENES</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1128,27 +1083,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>296</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2023-02-23</t>
+          <t>2022-12-29</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>10329334657</t>
+          <t>20487853446</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>VELASQUEZ NUÑEZ SILVIA DEL PILAR</t>
+          <t>ARENRUSTIK S.A.C.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>412.15</t>
+          <t>2576.2</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -1163,12 +1118,12 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>486.34</t>
+          <t>3039.92</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>74.19</t>
+          <t>463.72</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -1193,7 +1148,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>486.34</t>
+          <t>3039.92</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -1201,11 +1156,6 @@
           <t>0,00</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>Aceptado</t>
-        </is>
-      </c>
       <c r="S5" t="inlineStr">
         <is>
           <t>0</t>
@@ -1251,16 +1201,6 @@
           <t>COD BANCO</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
       <c r="AD5" t="inlineStr">
         <is>
           <t>7012</t>
@@ -1268,7 +1208,7 @@
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>VENTA DE Productos</t>
+          <t>VENTA DE BIENES</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1290,27 +1230,27 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>421</t>
+          <t>295</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2023-02-22</t>
+          <t>2022-12-28</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>20338054115</t>
+          <t>20603686498</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>AUSTRAL GROUP S.A.A</t>
+          <t>MEGUI INVESTMENT S.A.C.</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>15500.0</t>
+          <t>430.22</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -1325,12 +1265,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>18290.0</t>
+          <t>507.66</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2790.0</t>
+          <t>77.44</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -1355,7 +1295,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>18290.0</t>
+          <t>507.66</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -1363,11 +1303,6 @@
           <t>0,00</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>Aceptado con Obs.</t>
-        </is>
-      </c>
       <c r="S6" t="inlineStr">
         <is>
           <t>0</t>
@@ -1413,16 +1348,6 @@
           <t>COD BANCO</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
       <c r="AD6" t="inlineStr">
         <is>
           <t>7012</t>
@@ -1430,12 +1355,12 @@
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>VENTA DE Servicios</t>
+          <t>VENTA DE BIENES</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1452,27 +1377,27 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>294</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2023-02-22</t>
+          <t>2022-12-26</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>20338054115</t>
+          <t>20600876211</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>AUSTRAL GROUP S.A.A</t>
+          <t>GRAU LOGISTICA EXPRESS S.A.</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2940.0</t>
+          <t>210.66</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -1487,12 +1412,12 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>3469.2</t>
+          <t>248.58</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>529.2</t>
+          <t>37.92</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -1517,7 +1442,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>3469.2</t>
+          <t>248.58</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
@@ -1525,11 +1450,6 @@
           <t>0,00</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>Aceptado con Obs.</t>
-        </is>
-      </c>
       <c r="S7" t="inlineStr">
         <is>
           <t>0</t>
@@ -1575,16 +1495,6 @@
           <t>COD BANCO</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
       <c r="AD7" t="inlineStr">
         <is>
           <t>7012</t>
@@ -1592,7 +1502,7 @@
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>VENTA DE Servicios</t>
+          <t>VENTA DE BIENES</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
@@ -1614,27 +1524,27 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>293</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2023-02-22</t>
+          <t>2022-12-23</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>20487981363</t>
+          <t>20569300194</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>PESQUERA JEHOVA PROVEERA S.A.C.</t>
+          <t>EMPRESA JEHOVA PODEROSO GIGANTE E.I.R.L.</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>179.85</t>
+          <t>764.28</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1649,12 +1559,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>212.22</t>
+          <t>901.85</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>32.37</t>
+          <t>137.57</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1679,7 +1589,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>212.22</t>
+          <t>901.85</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
@@ -1687,11 +1597,6 @@
           <t>0,00</t>
         </is>
       </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>Aceptado</t>
-        </is>
-      </c>
       <c r="S8" t="inlineStr">
         <is>
           <t>0</t>
@@ -1737,16 +1642,6 @@
           <t>COD BANCO</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
       <c r="AD8" t="inlineStr">
         <is>
           <t>7012</t>
@@ -1754,7 +1649,7 @@
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>VENTA DE Productos</t>
+          <t>VENTA DE BIENES</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
@@ -1776,27 +1671,27 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>292</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2023-02-22</t>
+          <t>2022-12-23</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>20487981363</t>
+          <t>20606015195</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>PESQUERA JEHOVA PROVEERA S.A.C.</t>
+          <t>CORPORACION LIBRIARY S.A.C.</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>192.72</t>
+          <t>7413.11</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1811,12 +1706,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>227.41</t>
+          <t>8747.47</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>34.69</t>
+          <t>1334.36</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1841,7 +1736,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>227.41</t>
+          <t>8747.47</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
@@ -1849,11 +1744,6 @@
           <t>0,00</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>Aceptado</t>
-        </is>
-      </c>
       <c r="S9" t="inlineStr">
         <is>
           <t>0</t>
@@ -1899,16 +1789,6 @@
           <t>COD BANCO</t>
         </is>
       </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
       <c r="AD9" t="inlineStr">
         <is>
           <t>7012</t>
@@ -1916,12 +1796,12 @@
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>VENTA DE Productos</t>
+          <t>VENTA DE BIENES</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1938,27 +1818,27 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>417</t>
+          <t>291</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2023-02-21</t>
+          <t>2022-12-23</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>20445766195</t>
+          <t>20602389660</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>PESQUERA DON ABELARDO S.A.C.</t>
+          <t>EMPRESA GRUPO JIVO SOCIEDAD ANONIMA CERRADA</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2253.02</t>
+          <t>164.74</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1973,12 +1853,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2658.56</t>
+          <t>194.39</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>405.54</t>
+          <t>29.65</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -2003,7 +1883,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>2658.56</t>
+          <t>194.39</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
@@ -2011,11 +1891,6 @@
           <t>0,00</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>Aceptado</t>
-        </is>
-      </c>
       <c r="S10" t="inlineStr">
         <is>
           <t>0</t>
@@ -2061,16 +1936,6 @@
           <t>COD BANCO</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
       <c r="AD10" t="inlineStr">
         <is>
           <t>7012</t>
@@ -2078,12 +1943,12 @@
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>VENTA DE Productos</t>
+          <t>VENTA DE BIENES</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2100,27 +1965,27 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>416</t>
+          <t>290</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2023-02-20</t>
+          <t>2022-12-23</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>20445766195</t>
+          <t>20602389660</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>PESQUERA DON ABELARDO S.A.C.</t>
+          <t>EMPRESA GRUPO JIVO SOCIEDAD ANONIMA CERRADA</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1049.42</t>
+          <t>363.92</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -2135,12 +2000,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>1238.32</t>
+          <t>429.43</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>188.9</t>
+          <t>65.51</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -2165,7 +2030,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>1238.32</t>
+          <t>429.43</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
@@ -2173,11 +2038,6 @@
           <t>0,00</t>
         </is>
       </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>Aceptado</t>
-        </is>
-      </c>
       <c r="S11" t="inlineStr">
         <is>
           <t>0</t>
@@ -2223,16 +2083,6 @@
           <t>COD BANCO</t>
         </is>
       </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
       <c r="AD11" t="inlineStr">
         <is>
           <t>7012</t>
@@ -2240,12 +2090,12 @@
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>VENTA DE Productos</t>
+          <t>VENTA DE BIENES</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2262,27 +2112,27 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>415</t>
+          <t>289</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2023-02-20</t>
+          <t>2022-12-22</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>20479977390</t>
+          <t>20487853446</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>AUROMAR SOCIEDAD ANONIMA CERRADA</t>
+          <t>ARENRUSTIK S.A.C.</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>783.9</t>
+          <t>2189.28</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -2297,12 +2147,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>925.0</t>
+          <t>2583.35</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>141.1</t>
+          <t>394.07</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -2327,7 +2177,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>925.0</t>
+          <t>2583.35</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
@@ -2335,11 +2185,6 @@
           <t>0,00</t>
         </is>
       </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>Aceptado</t>
-        </is>
-      </c>
       <c r="S12" t="inlineStr">
         <is>
           <t>0</t>
@@ -2385,16 +2230,6 @@
           <t>COD BANCO</t>
         </is>
       </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
       <c r="AD12" t="inlineStr">
         <is>
           <t>7012</t>
@@ -2402,12 +2237,12 @@
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>VENTA DE Productos</t>
+          <t>VENTA DE BIENES</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2424,27 +2259,27 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>288</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2023-02-20</t>
+          <t>2022-12-22</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>20445766195</t>
+          <t>20487853446</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>PESQUERA DON ABELARDO S.A.C.</t>
+          <t>ARENRUSTIK S.A.C.</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1780.25</t>
+          <t>9870.76</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -2459,12 +2294,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>2100.69</t>
+          <t>11647.5</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>320.44</t>
+          <t>1776.74</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -2489,7 +2324,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>2100.69</t>
+          <t>11647.5</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
@@ -2497,11 +2332,6 @@
           <t>0,00</t>
         </is>
       </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>Aceptado</t>
-        </is>
-      </c>
       <c r="S13" t="inlineStr">
         <is>
           <t>0</t>
@@ -2547,16 +2377,6 @@
           <t>COD BANCO</t>
         </is>
       </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
       <c r="AD13" t="inlineStr">
         <is>
           <t>7012</t>
@@ -2564,7 +2384,7 @@
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>VENTA DE Productos</t>
+          <t>VENTA DE BIENES</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
@@ -2586,27 +2406,27 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>413</t>
+          <t>287</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2023-02-20</t>
+          <t>2022-12-21</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>10165986780</t>
+          <t>20602389660</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>ARROYO CASTRO MARCELINO</t>
+          <t>EMPRESA GRUPO JIVO SOCIEDAD ANONIMA CERRADA</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>350.46</t>
+          <t>219.29</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -2621,12 +2441,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>413.54</t>
+          <t>258.76</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>63.08</t>
+          <t>39.47</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -2651,7 +2471,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>413.54</t>
+          <t>258.76</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
@@ -2659,11 +2479,6 @@
           <t>0,00</t>
         </is>
       </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>Aceptado</t>
-        </is>
-      </c>
       <c r="S14" t="inlineStr">
         <is>
           <t>0</t>
@@ -2709,16 +2524,6 @@
           <t>COD BANCO</t>
         </is>
       </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
       <c r="AD14" t="inlineStr">
         <is>
           <t>7012</t>
@@ -2726,12 +2531,12 @@
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>VENTA DE Productos</t>
+          <t>VENTA DE BIENES</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2748,27 +2553,27 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>286</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2023-02-20</t>
+          <t>2022-12-20</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>20100003351</t>
+          <t>20602389660</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>SERVICIOS INDUSTRIALES DE LA MARINA S.A.</t>
+          <t>EMPRESA GRUPO JIVO SOCIEDAD ANONIMA CERRADA</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>7978.54</t>
+          <t>239.32</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -2783,12 +2588,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>9414.68</t>
+          <t>282.4</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>1436.14</t>
+          <t>43.08</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -2813,7 +2618,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>9414.68</t>
+          <t>282.4</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
@@ -2821,11 +2626,6 @@
           <t>0,00</t>
         </is>
       </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>Aceptado con Obs.</t>
-        </is>
-      </c>
       <c r="S15" t="inlineStr">
         <is>
           <t>0</t>
@@ -2848,52 +2648,42 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>FECHA DETRAC</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>COD BANCO</t>
+        </is>
+      </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>7012</t>
+        </is>
+      </c>
+      <c r="AE15" t="inlineStr">
+        <is>
+          <t>VENTA DE BIENES</t>
+        </is>
+      </c>
+      <c r="AF15" t="inlineStr">
+        <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="X15" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>FECHA DETRAC</t>
-        </is>
-      </c>
-      <c r="AA15" t="inlineStr">
-        <is>
-          <t>COD BANCO</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
-      <c r="AD15" t="inlineStr">
-        <is>
-          <t>7012</t>
-        </is>
-      </c>
-      <c r="AE15" t="inlineStr">
-        <is>
-          <t>VENTA DE Productos</t>
-        </is>
-      </c>
-      <c r="AF15" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
@@ -2910,27 +2700,27 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>285</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2023-02-18</t>
+          <t>2022-12-20</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>20100003351</t>
+          <t>20602389660</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>SERVICIOS INDUSTRIALES DE LA MARINA S.A.</t>
+          <t>EMPRESA GRUPO JIVO SOCIEDAD ANONIMA CERRADA</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>1029.77</t>
+          <t>256.67</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -2945,12 +2735,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>1215.13</t>
+          <t>302.87</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>185.36</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -2975,7 +2765,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>1215.13</t>
+          <t>302.87</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
@@ -2983,11 +2773,6 @@
           <t>0,00</t>
         </is>
       </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>Aceptado con Obs.</t>
-        </is>
-      </c>
       <c r="S16" t="inlineStr">
         <is>
           <t>0</t>
@@ -3010,52 +2795,42 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>FECHA DETRAC</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>COD BANCO</t>
+        </is>
+      </c>
+      <c r="AD16" t="inlineStr">
+        <is>
+          <t>7012</t>
+        </is>
+      </c>
+      <c r="AE16" t="inlineStr">
+        <is>
+          <t>VENTA DE BIENES</t>
+        </is>
+      </c>
+      <c r="AF16" t="inlineStr">
+        <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="X16" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
-      <c r="Y16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>FECHA DETRAC</t>
-        </is>
-      </c>
-      <c r="AA16" t="inlineStr">
-        <is>
-          <t>COD BANCO</t>
-        </is>
-      </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
-      <c r="AD16" t="inlineStr">
-        <is>
-          <t>7012</t>
-        </is>
-      </c>
-      <c r="AE16" t="inlineStr">
-        <is>
-          <t>VENTA DE Productos</t>
-        </is>
-      </c>
-      <c r="AF16" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
@@ -3072,27 +2847,27 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>284</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2023-02-18</t>
+          <t>2022-12-20</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>20100003351</t>
+          <t>20604475903</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>SERVICIOS INDUSTRIALES DE LA MARINA S.A.</t>
+          <t>NEGOCIOS CRONOS E.I.R.L.</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>8150.9</t>
+          <t>73.45</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -3107,12 +2882,12 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>9618.06</t>
+          <t>86.67</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>1467.16</t>
+          <t>13.22</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -3137,7 +2912,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>9618.06</t>
+          <t>86.67</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
@@ -3145,11 +2920,6 @@
           <t>0,00</t>
         </is>
       </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>Aceptado con Obs.</t>
-        </is>
-      </c>
       <c r="S17" t="inlineStr">
         <is>
           <t>0</t>
@@ -3172,7 +2942,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
@@ -3195,16 +2965,6 @@
           <t>COD BANCO</t>
         </is>
       </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
       <c r="AD17" t="inlineStr">
         <is>
           <t>7012</t>
@@ -3212,7 +2972,7 @@
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>VENTA DE Productos</t>
+          <t>VENTA DE BIENES</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
@@ -3234,27 +2994,27 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>409</t>
+          <t>283</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2023-02-18</t>
+          <t>2022-12-20</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>20100003351</t>
+          <t>20354180911</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>SERVICIOS INDUSTRIALES DE LA MARINA S.A.</t>
+          <t>HALCON S.A.</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1029.77</t>
+          <t>805.5</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -3269,12 +3029,12 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>1215.13</t>
+          <t>950.49</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>185.36</t>
+          <t>144.99</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -3299,7 +3059,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>1215.13</t>
+          <t>950.49</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
@@ -3307,11 +3067,6 @@
           <t>0,00</t>
         </is>
       </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>Rechazado</t>
-        </is>
-      </c>
       <c r="S18" t="inlineStr">
         <is>
           <t>0</t>
@@ -3332,54 +3087,39 @@
           <t>-</t>
         </is>
       </c>
-      <c r="W18" t="inlineStr">
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>FECHA DETRAC</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>COD BANCO</t>
+        </is>
+      </c>
+      <c r="AD18" t="inlineStr">
+        <is>
+          <t>7012</t>
+        </is>
+      </c>
+      <c r="AE18" t="inlineStr">
+        <is>
+          <t>VENTA DE BIENES</t>
+        </is>
+      </c>
+      <c r="AF18" t="inlineStr">
         <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="X18" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
-      <c r="Y18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>FECHA DETRAC</t>
-        </is>
-      </c>
-      <c r="AA18" t="inlineStr">
-        <is>
-          <t>COD BANCO</t>
-        </is>
-      </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
-      <c r="AD18" t="inlineStr">
-        <is>
-          <t>7012</t>
-        </is>
-      </c>
-      <c r="AE18" t="inlineStr">
-        <is>
-          <t>VENTA DE Productos</t>
-        </is>
-      </c>
-      <c r="AF18" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
@@ -3396,27 +3136,27 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>408</t>
+          <t>282</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2023-02-17</t>
+          <t>2022-12-20</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>20100003351</t>
+          <t>20602717993</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>SERVICIOS INDUSTRIALES DE LA MARINA S.A.</t>
+          <t>FERRETERIA INDUSTRIAL THAIS E.I.R.L.</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>8150.9</t>
+          <t>3530.4</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -3431,12 +3171,12 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>9618.06</t>
+          <t>4165.87</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>1467.16</t>
+          <t>635.47</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -3461,7 +3201,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>9618.06</t>
+          <t>4165.87</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
@@ -3469,11 +3209,6 @@
           <t>0,00</t>
         </is>
       </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>Anulado</t>
-        </is>
-      </c>
       <c r="S19" t="inlineStr">
         <is>
           <t>0</t>
@@ -3496,52 +3231,42 @@
       </c>
       <c r="W19" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>FECHA DETRAC</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>COD BANCO</t>
+        </is>
+      </c>
+      <c r="AD19" t="inlineStr">
+        <is>
+          <t>7012</t>
+        </is>
+      </c>
+      <c r="AE19" t="inlineStr">
+        <is>
+          <t>VENTA DE BIENES</t>
+        </is>
+      </c>
+      <c r="AF19" t="inlineStr">
+        <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="X19" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
-      <c r="Y19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>FECHA DETRAC</t>
-        </is>
-      </c>
-      <c r="AA19" t="inlineStr">
-        <is>
-          <t>COD BANCO</t>
-        </is>
-      </c>
-      <c r="AB19" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
-      <c r="AD19" t="inlineStr">
-        <is>
-          <t>7012</t>
-        </is>
-      </c>
-      <c r="AE19" t="inlineStr">
-        <is>
-          <t>VENTA DE Productos</t>
-        </is>
-      </c>
-      <c r="AF19" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
@@ -3558,27 +3283,27 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>407</t>
+          <t>281</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2023-02-17</t>
+          <t>2022-12-19</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>20603686498</t>
+          <t>20604475903</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>MEGUI INVESTMENT S.A.C.</t>
+          <t>NEGOCIOS CRONOS E.I.R.L.</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>607.89</t>
+          <t>71.63</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -3593,12 +3318,12 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>717.31</t>
+          <t>84.52</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>109.42</t>
+          <t>12.89</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -3623,7 +3348,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>717.31</t>
+          <t>84.52</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
@@ -3631,11 +3356,6 @@
           <t>0,00</t>
         </is>
       </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>Aceptado</t>
-        </is>
-      </c>
       <c r="S20" t="inlineStr">
         <is>
           <t>0</t>
@@ -3681,16 +3401,6 @@
           <t>COD BANCO</t>
         </is>
       </c>
-      <c r="AB20" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
       <c r="AD20" t="inlineStr">
         <is>
           <t>7012</t>
@@ -3698,12 +3408,12 @@
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>VENTA DE Productos</t>
+          <t>VENTA DE BIENES</t>
         </is>
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3720,27 +3430,27 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>280</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2023-02-17</t>
+          <t>2022-12-19</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>20100003351</t>
+          <t>20603686498</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>SERVICIOS INDUSTRIALES DE LA MARINA S.A.</t>
+          <t>MEGUI INVESTMENT S.A.C.</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>1029.77</t>
+          <t>120.17</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -3755,12 +3465,12 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>1215.13</t>
+          <t>141.8</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>185.36</t>
+          <t>21.63</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -3785,7 +3495,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>1215.13</t>
+          <t>141.8</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
@@ -3793,11 +3503,6 @@
           <t>0,00</t>
         </is>
       </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>Anulado</t>
-        </is>
-      </c>
       <c r="S21" t="inlineStr">
         <is>
           <t>0</t>
@@ -3820,52 +3525,42 @@
       </c>
       <c r="W21" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>FECHA DETRAC</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>COD BANCO</t>
+        </is>
+      </c>
+      <c r="AD21" t="inlineStr">
+        <is>
+          <t>7012</t>
+        </is>
+      </c>
+      <c r="AE21" t="inlineStr">
+        <is>
+          <t>VENTA DE BIENES</t>
+        </is>
+      </c>
+      <c r="AF21" t="inlineStr">
+        <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="X21" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
-      <c r="Y21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>FECHA DETRAC</t>
-        </is>
-      </c>
-      <c r="AA21" t="inlineStr">
-        <is>
-          <t>COD BANCO</t>
-        </is>
-      </c>
-      <c r="AB21" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
-      <c r="AD21" t="inlineStr">
-        <is>
-          <t>7012</t>
-        </is>
-      </c>
-      <c r="AE21" t="inlineStr">
-        <is>
-          <t>VENTA DE Productos</t>
-        </is>
-      </c>
-      <c r="AF21" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
@@ -3882,27 +3577,27 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>279</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2023-02-17</t>
+          <t>2022-12-19</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>20100003351</t>
+          <t>20602389660</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>SERVICIOS INDUSTRIALES DE LA MARINA S.A.</t>
+          <t>EMPRESA GRUPO JIVO SOCIEDAD ANONIMA CERRADA</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>869.58</t>
+          <t>988.94</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -3917,12 +3612,12 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>1026.1</t>
+          <t>1166.95</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>156.52</t>
+          <t>178.01</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -3947,7 +3642,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>1026.1</t>
+          <t>1166.95</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
@@ -3955,11 +3650,6 @@
           <t>0,00</t>
         </is>
       </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>Aceptado con Obs.</t>
-        </is>
-      </c>
       <c r="S22" t="inlineStr">
         <is>
           <t>0</t>
@@ -3982,7 +3672,7 @@
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
@@ -4005,16 +3695,6 @@
           <t>COD BANCO</t>
         </is>
       </c>
-      <c r="AB22" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
       <c r="AD22" t="inlineStr">
         <is>
           <t>7012</t>
@@ -4022,7 +3702,7 @@
       </c>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>VENTA DE Productos</t>
+          <t>VENTA DE BIENES</t>
         </is>
       </c>
       <c r="AF22" t="inlineStr">
@@ -4044,27 +3724,27 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>278</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2023-02-17</t>
+          <t>2022-12-17</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>20601825491</t>
+          <t>10466607598</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>FERSERVICE NAVAL E INDUSTRIAL E.I.R.L.</t>
+          <t>CORTIJO ELORREAGA KAREN LISBETH</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>5190.7</t>
+          <t>13584.0</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -4079,12 +3759,12 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>6125.03</t>
+          <t>16029.12</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>934.33</t>
+          <t>2445.12</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -4109,7 +3789,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>6125.03</t>
+          <t>16029.12</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
@@ -4117,11 +3797,6 @@
           <t>0,00</t>
         </is>
       </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>Aceptado</t>
-        </is>
-      </c>
       <c r="S23" t="inlineStr">
         <is>
           <t>0</t>
@@ -4167,16 +3842,6 @@
           <t>COD BANCO</t>
         </is>
       </c>
-      <c r="AB23" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
-      <c r="AC23" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
       <c r="AD23" t="inlineStr">
         <is>
           <t>7012</t>
@@ -4184,7 +3849,7 @@
       </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>VENTA DE Productos</t>
+          <t>VENTA DE BIENES</t>
         </is>
       </c>
       <c r="AF23" t="inlineStr">
@@ -4206,27 +3871,27 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>277</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2023-02-17</t>
+          <t>2022-12-17</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>20100003351</t>
+          <t>10329884762</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>SERVICIOS INDUSTRIALES DE LA MARINA S.A.</t>
+          <t>SANCHEZ CONDORI GRISELDA SOFIA</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>869.58</t>
+          <t>3530.4</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -4241,12 +3906,12 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>1026.1</t>
+          <t>4165.87</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>156.52</t>
+          <t>635.47</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -4271,7 +3936,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>1026.1</t>
+          <t>4165.87</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
@@ -4281,7 +3946,7 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>X</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
@@ -4306,52 +3971,42 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>FECHA DETRAC</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>COD BANCO</t>
+        </is>
+      </c>
+      <c r="AD24" t="inlineStr">
+        <is>
+          <t>7012</t>
+        </is>
+      </c>
+      <c r="AE24" t="inlineStr">
+        <is>
+          <t>VENTA DE BIENES</t>
+        </is>
+      </c>
+      <c r="AF24" t="inlineStr">
+        <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="X24" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
-      <c r="Y24" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z24" t="inlineStr">
-        <is>
-          <t>FECHA DETRAC</t>
-        </is>
-      </c>
-      <c r="AA24" t="inlineStr">
-        <is>
-          <t>COD BANCO</t>
-        </is>
-      </c>
-      <c r="AB24" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
-      <c r="AC24" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
-      <c r="AD24" t="inlineStr">
-        <is>
-          <t>7012</t>
-        </is>
-      </c>
-      <c r="AE24" t="inlineStr">
-        <is>
-          <t>VENTA DE Productos</t>
-        </is>
-      </c>
-      <c r="AF24" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
@@ -4368,27 +4023,27 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>276</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2023-02-17</t>
+          <t>2022-12-15</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>20602817670</t>
+          <t>20445526127</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>INGENIERIA Y SERVICIOS MECANICOS PERU S.A.C. - INSERMEC PERU S.A.C.</t>
+          <t>SERVICIOS INDUSTRIALES HALAVISI S.A.C.</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>363.82</t>
+          <t>252.38</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -4403,12 +4058,12 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>429.31</t>
+          <t>297.81</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>65.49</t>
+          <t>45.43</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -4433,7 +4088,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>429.31</t>
+          <t>297.81</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
@@ -4441,11 +4096,6 @@
           <t>0,00</t>
         </is>
       </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>Aceptado</t>
-        </is>
-      </c>
       <c r="S25" t="inlineStr">
         <is>
           <t>0</t>
@@ -4491,16 +4141,6 @@
           <t>COD BANCO</t>
         </is>
       </c>
-      <c r="AB25" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
-      <c r="AC25" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
       <c r="AD25" t="inlineStr">
         <is>
           <t>7012</t>
@@ -4508,7 +4148,7 @@
       </c>
       <c r="AE25" t="inlineStr">
         <is>
-          <t>VENTA DE Productos</t>
+          <t>VENTA DE BIENES</t>
         </is>
       </c>
       <c r="AF25" t="inlineStr">
@@ -4530,27 +4170,27 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>401</t>
+          <t>275</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2023-02-15</t>
+          <t>2022-12-15</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10329334657</t>
+          <t>20445526127</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>VELASQUEZ NUÑEZ SILVIA DEL PILAR</t>
+          <t>SERVICIOS INDUSTRIALES HALAVISI S.A.C.</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>9058.44</t>
+          <t>381.07</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -4565,12 +4205,12 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>10688.96</t>
+          <t>449.66</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>1630.52</t>
+          <t>68.59</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -4595,7 +4235,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>10688.96</t>
+          <t>449.66</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
@@ -4603,11 +4243,6 @@
           <t>0,00</t>
         </is>
       </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>Aceptado</t>
-        </is>
-      </c>
       <c r="S26" t="inlineStr">
         <is>
           <t>0</t>
@@ -4653,16 +4288,6 @@
           <t>COD BANCO</t>
         </is>
       </c>
-      <c r="AB26" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
-      <c r="AC26" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
       <c r="AD26" t="inlineStr">
         <is>
           <t>7012</t>
@@ -4670,7 +4295,7 @@
       </c>
       <c r="AE26" t="inlineStr">
         <is>
-          <t>VENTA DE Productos</t>
+          <t>VENTA DE BIENES</t>
         </is>
       </c>
       <c r="AF26" t="inlineStr">
@@ -4692,27 +4317,27 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>274</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2023-02-14</t>
+          <t>2022-12-15</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>20487853446</t>
+          <t>20609276828</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>ARENRUSTIK S.A.C.</t>
+          <t>SOLDER GROUP S.A.C.</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2497.44</t>
+          <t>863.92</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -4727,12 +4352,12 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>2946.98</t>
+          <t>1019.43</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>449.54</t>
+          <t>155.51</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -4757,7 +4382,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>2946.98</t>
+          <t>1019.43</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
@@ -4765,11 +4390,6 @@
           <t>0,00</t>
         </is>
       </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>Aceptado</t>
-        </is>
-      </c>
       <c r="S27" t="inlineStr">
         <is>
           <t>0</t>
@@ -4815,16 +4435,6 @@
           <t>COD BANCO</t>
         </is>
       </c>
-      <c r="AB27" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
-      <c r="AC27" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
       <c r="AD27" t="inlineStr">
         <is>
           <t>7012</t>
@@ -4832,7 +4442,7 @@
       </c>
       <c r="AE27" t="inlineStr">
         <is>
-          <t>VENTA DE Productos</t>
+          <t>VENTA DE BIENES</t>
         </is>
       </c>
       <c r="AF27" t="inlineStr">
@@ -4854,27 +4464,27 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>273</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2023-02-14</t>
+          <t>2022-12-14</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>20487853446</t>
+          <t>20338054115</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>ARENRUSTIK S.A.C.</t>
+          <t>AUSTRAL GROUP S.A.A</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2497.44</t>
+          <t>1250.0</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -4889,12 +4499,12 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>2946.98</t>
+          <t>1475.0</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>449.54</t>
+          <t>225.0</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -4919,7 +4529,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>2946.98</t>
+          <t>1475.0</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
@@ -4949,7 +4559,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="X28" t="inlineStr">
@@ -4972,16 +4582,6 @@
           <t>COD BANCO</t>
         </is>
       </c>
-      <c r="AB28" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
-      <c r="AC28" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
       <c r="AD28" t="inlineStr">
         <is>
           <t>7012</t>
@@ -4989,7 +4589,7 @@
       </c>
       <c r="AE28" t="inlineStr">
         <is>
-          <t>VENTA DE Productos</t>
+          <t>VENTA DE SERVICIOS</t>
         </is>
       </c>
       <c r="AF28" t="inlineStr">
@@ -5011,27 +4611,27 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>272</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2023-02-14</t>
+          <t>2022-12-12</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>20142053498</t>
+          <t>20445526127</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>PESQUERA BETHEL S.A.</t>
+          <t>SERVICIOS INDUSTRIALES HALAVISI S.A.C.</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>1744.31</t>
+          <t>415.72</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -5046,12 +4646,12 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>2058.29</t>
+          <t>490.55</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>313.98</t>
+          <t>74.83</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -5076,7 +4676,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>2058.29</t>
+          <t>490.55</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
@@ -5084,11 +4684,6 @@
           <t>0,00</t>
         </is>
       </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>Aceptado</t>
-        </is>
-      </c>
       <c r="S29" t="inlineStr">
         <is>
           <t>0</t>
@@ -5134,16 +4729,6 @@
           <t>COD BANCO</t>
         </is>
       </c>
-      <c r="AB29" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
-      <c r="AC29" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
       <c r="AD29" t="inlineStr">
         <is>
           <t>7012</t>
@@ -5151,12 +4736,12 @@
       </c>
       <c r="AE29" t="inlineStr">
         <is>
-          <t>VENTA DE Productos</t>
+          <t>VENTA DE BIENES</t>
         </is>
       </c>
       <c r="AF29" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5173,27 +4758,27 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>271</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2023-02-14</t>
+          <t>2022-12-10</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>20609664151</t>
+          <t>20602817670</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>ALLMAR S.A.C.</t>
+          <t>INGENIERIA Y SERVICIOS MECANICOS PERU S.A.C. - INSERMEC PERU S.A.C.</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>370.45</t>
+          <t>804.94</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -5208,12 +4793,12 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>437.13</t>
+          <t>949.83</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>66.68</t>
+          <t>144.89</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -5238,7 +4823,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>437.13</t>
+          <t>949.83</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
@@ -5246,11 +4831,6 @@
           <t>0,00</t>
         </is>
       </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>Aceptado</t>
-        </is>
-      </c>
       <c r="S30" t="inlineStr">
         <is>
           <t>0</t>
@@ -5296,16 +4876,6 @@
           <t>COD BANCO</t>
         </is>
       </c>
-      <c r="AB30" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
-      <c r="AC30" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
       <c r="AD30" t="inlineStr">
         <is>
           <t>7012</t>
@@ -5313,12 +4883,12 @@
       </c>
       <c r="AE30" t="inlineStr">
         <is>
-          <t>VENTA DE Productos</t>
+          <t>VENTA DE BIENES</t>
         </is>
       </c>
       <c r="AF30" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5335,27 +4905,27 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>396</t>
+          <t>270</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2023-02-14</t>
+          <t>2022-12-10</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>20603686498</t>
+          <t>20607410713</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>MEGUI INVESTMENT S.A.C.</t>
+          <t>ASTILLEROS LUGUENSI S.A.C.</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2337.24</t>
+          <t>1134.82</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -5370,12 +4940,12 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>2757.94</t>
+          <t>1339.09</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>420.7</t>
+          <t>204.27</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -5400,7 +4970,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>2757.94</t>
+          <t>1339.09</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
@@ -5408,11 +4978,6 @@
           <t>0,00</t>
         </is>
       </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>Aceptado</t>
-        </is>
-      </c>
       <c r="S31" t="inlineStr">
         <is>
           <t>0</t>
@@ -5433,54 +4998,39 @@
           <t>-</t>
         </is>
       </c>
-      <c r="W31" t="inlineStr">
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>FECHA DETRAC</t>
+        </is>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>COD BANCO</t>
+        </is>
+      </c>
+      <c r="AD31" t="inlineStr">
+        <is>
+          <t>7012</t>
+        </is>
+      </c>
+      <c r="AE31" t="inlineStr">
+        <is>
+          <t>VENTA DE BIENES</t>
+        </is>
+      </c>
+      <c r="AF31" t="inlineStr">
         <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="X31" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
-      <c r="Y31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z31" t="inlineStr">
-        <is>
-          <t>FECHA DETRAC</t>
-        </is>
-      </c>
-      <c r="AA31" t="inlineStr">
-        <is>
-          <t>COD BANCO</t>
-        </is>
-      </c>
-      <c r="AB31" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
-      <c r="AC31" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
-      <c r="AD31" t="inlineStr">
-        <is>
-          <t>7012</t>
-        </is>
-      </c>
-      <c r="AE31" t="inlineStr">
-        <is>
-          <t>VENTA DE Productos</t>
-        </is>
-      </c>
-      <c r="AF31" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
     </row>
@@ -5497,27 +5047,27 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>269</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2023-02-13</t>
+          <t>2022-12-09</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>20601799309</t>
+          <t>20380336384</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>INVERSIONES BJES E.I.R.L.</t>
+          <t>PESQUERA EXALMAR S.A.A.</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>416.94</t>
+          <t>2552.85</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -5532,12 +5082,12 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>491.99</t>
+          <t>3012.36</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>75.05</t>
+          <t>459.51</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -5562,7 +5112,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>491.99</t>
+          <t>3012.36</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
@@ -5570,11 +5120,6 @@
           <t>0,00</t>
         </is>
       </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>Aceptado</t>
-        </is>
-      </c>
       <c r="S32" t="inlineStr">
         <is>
           <t>0</t>
@@ -5595,11 +5140,6 @@
           <t>-</t>
         </is>
       </c>
-      <c r="W32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="X32" t="inlineStr">
         <is>
           <t>001</t>
@@ -5620,16 +5160,6 @@
           <t>COD BANCO</t>
         </is>
       </c>
-      <c r="AB32" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
-      <c r="AC32" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
       <c r="AD32" t="inlineStr">
         <is>
           <t>7012</t>
@@ -5637,7 +5167,7 @@
       </c>
       <c r="AE32" t="inlineStr">
         <is>
-          <t>VENTA DE Productos</t>
+          <t>VENTA DE BIENES</t>
         </is>
       </c>
       <c r="AF32" t="inlineStr">
@@ -5659,27 +5189,27 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>268</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2023-02-13</t>
+          <t>2022-12-08</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10165890120</t>
+          <t>20205572229</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>HUAMANCHUMO MATEO VDA DE SIPION YOLANDA</t>
+          <t>INDUSTRIAL PESQUERA SANTA MONICA S.A.</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>65.07</t>
+          <t>839.95</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -5694,12 +5224,12 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>76.78</t>
+          <t>991.14</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>11.71</t>
+          <t>151.19</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -5724,7 +5254,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>76.78</t>
+          <t>991.14</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
@@ -5732,11 +5262,6 @@
           <t>0,00</t>
         </is>
       </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>Aceptado</t>
-        </is>
-      </c>
       <c r="S33" t="inlineStr">
         <is>
           <t>0</t>
@@ -5757,11 +5282,6 @@
           <t>-</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="X33" t="inlineStr">
         <is>
           <t>001</t>
@@ -5782,16 +5302,6 @@
           <t>COD BANCO</t>
         </is>
       </c>
-      <c r="AB33" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
-      <c r="AC33" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
       <c r="AD33" t="inlineStr">
         <is>
           <t>7012</t>
@@ -5799,12 +5309,12 @@
       </c>
       <c r="AE33" t="inlineStr">
         <is>
-          <t>VENTA DE Productos</t>
+          <t>VENTA DE BIENES</t>
         </is>
       </c>
       <c r="AF33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -5821,27 +5331,27 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>267</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2023-02-11</t>
+          <t>2022-12-07</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>20605983325</t>
+          <t>20487853446</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>CORPORACION NAUTICA S.A.C.</t>
+          <t>ARENRUSTIK S.A.C.</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>6220.35</t>
+          <t>2020.14</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -5856,12 +5366,12 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>7340.01</t>
+          <t>2383.77</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>1119.66</t>
+          <t>363.63</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -5886,7 +5396,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>7340.01</t>
+          <t>2383.77</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
@@ -5894,11 +5404,6 @@
           <t>0,00</t>
         </is>
       </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>Aceptado</t>
-        </is>
-      </c>
       <c r="S34" t="inlineStr">
         <is>
           <t>0</t>
@@ -5944,16 +5449,6 @@
           <t>COD BANCO</t>
         </is>
       </c>
-      <c r="AB34" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
-      <c r="AC34" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
       <c r="AD34" t="inlineStr">
         <is>
           <t>7012</t>
@@ -5961,12 +5456,12 @@
       </c>
       <c r="AE34" t="inlineStr">
         <is>
-          <t>VENTA DE Productos</t>
+          <t>VENTA DE BIENES</t>
         </is>
       </c>
       <c r="AF34" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5983,27 +5478,27 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>265</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2023-02-11</t>
+          <t>2022-12-07</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>20603686498</t>
+          <t>20602389660</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>MEGUI INVESTMENT S.A.C.</t>
+          <t>EMPRESA GRUPO JIVO SOCIEDAD ANONIMA CERRADA</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>273.44</t>
+          <t>255.36</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -6018,12 +5513,12 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>322.66</t>
+          <t>301.32</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>49.22</t>
+          <t>45.96</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -6048,7 +5543,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>322.66</t>
+          <t>301.32</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
@@ -6056,11 +5551,6 @@
           <t>0,00</t>
         </is>
       </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>Aceptado</t>
-        </is>
-      </c>
       <c r="S35" t="inlineStr">
         <is>
           <t>0</t>
@@ -6106,16 +5596,6 @@
           <t>COD BANCO</t>
         </is>
       </c>
-      <c r="AB35" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
-      <c r="AC35" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
       <c r="AD35" t="inlineStr">
         <is>
           <t>7012</t>
@@ -6123,7 +5603,7 @@
       </c>
       <c r="AE35" t="inlineStr">
         <is>
-          <t>VENTA DE Productos</t>
+          <t>VENTA DE BIENES</t>
         </is>
       </c>
       <c r="AF35" t="inlineStr">
@@ -6145,27 +5625,27 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>391</t>
+          <t>264</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2023-02-10</t>
+          <t>2022-12-06</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>20487853446</t>
+          <t>20607410713</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>ARENRUSTIK S.A.C.</t>
+          <t>ASTILLEROS LUGUENSI S.A.C.</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>11725.36</t>
+          <t>1134.82</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -6180,12 +5660,12 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>13835.92</t>
+          <t>1339.09</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>2110.56</t>
+          <t>204.27</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -6210,7 +5690,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>13835.92</t>
+          <t>1339.09</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
@@ -6220,7 +5700,7 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Aceptado</t>
+          <t>X</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
@@ -6243,11 +5723,6 @@
           <t>-</t>
         </is>
       </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="X36" t="inlineStr">
         <is>
           <t>001</t>
@@ -6268,16 +5743,6 @@
           <t>COD BANCO</t>
         </is>
       </c>
-      <c r="AB36" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
-      <c r="AC36" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
       <c r="AD36" t="inlineStr">
         <is>
           <t>7012</t>
@@ -6285,7 +5750,7 @@
       </c>
       <c r="AE36" t="inlineStr">
         <is>
-          <t>VENTA DE Productos</t>
+          <t>VENTA DE BIENES</t>
         </is>
       </c>
       <c r="AF36" t="inlineStr">
@@ -6307,27 +5772,27 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>263</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2023-02-10</t>
+          <t>2022-12-03</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>20479977390</t>
+          <t>20602389660</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>AUROMAR SOCIEDAD ANONIMA CERRADA</t>
+          <t>EMPRESA GRUPO JIVO SOCIEDAD ANONIMA CERRADA</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>694.6</t>
+          <t>236.24</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -6342,12 +5807,12 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>819.63</t>
+          <t>278.76</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>125.03</t>
+          <t>42.52</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -6372,7 +5837,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>819.63</t>
+          <t>278.76</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
@@ -6380,11 +5845,6 @@
           <t>0,00</t>
         </is>
       </c>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>Aceptado</t>
-        </is>
-      </c>
       <c r="S37" t="inlineStr">
         <is>
           <t>0</t>
@@ -6430,16 +5890,6 @@
           <t>COD BANCO</t>
         </is>
       </c>
-      <c r="AB37" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
-      <c r="AC37" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
       <c r="AD37" t="inlineStr">
         <is>
           <t>7012</t>
@@ -6447,7 +5897,7 @@
       </c>
       <c r="AE37" t="inlineStr">
         <is>
-          <t>VENTA DE Productos</t>
+          <t>VENTA DE BIENES</t>
         </is>
       </c>
       <c r="AF37" t="inlineStr">
@@ -6469,27 +5919,27 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>262</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2023-02-09</t>
+          <t>2022-12-02</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10329334657</t>
+          <t>20607655848</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>VELASQUEZ NUÑEZ SILVIA DEL PILAR</t>
+          <t>COPESFA E.I.R.L.</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>4150.8</t>
+          <t>75.84</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -6504,12 +5954,12 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>4897.94</t>
+          <t>89.49</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>747.14</t>
+          <t>13.65</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -6534,7 +5984,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>4897.94</t>
+          <t>89.49</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
@@ -6542,11 +5992,6 @@
           <t>0,00</t>
         </is>
       </c>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>Aceptado</t>
-        </is>
-      </c>
       <c r="S38" t="inlineStr">
         <is>
           <t>0</t>
@@ -6592,16 +6037,6 @@
           <t>COD BANCO</t>
         </is>
       </c>
-      <c r="AB38" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
-      <c r="AC38" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
       <c r="AD38" t="inlineStr">
         <is>
           <t>7012</t>
@@ -6609,12 +6044,12 @@
       </c>
       <c r="AE38" t="inlineStr">
         <is>
-          <t>VENTA DE Productos</t>
+          <t>VENTA DE BIENES</t>
         </is>
       </c>
       <c r="AF38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -6631,27 +6066,27 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>388</t>
+          <t>261</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2023-02-09</t>
+          <t>2022-12-02</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>20606015195</t>
+          <t>20445634108</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>CORPORACION LIBRIARY S.A.C.</t>
+          <t>TRANSPORTE Y GRUAS CHIMBOTE S.R.L.</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>1236.05</t>
+          <t>436.86</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -6666,12 +6101,12 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>1458.54</t>
+          <t>515.49</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>222.49</t>
+          <t>78.63</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -6696,7 +6131,7 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>1458.54</t>
+          <t>515.49</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
@@ -6704,11 +6139,6 @@
           <t>0,00</t>
         </is>
       </c>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>Aceptado</t>
-        </is>
-      </c>
       <c r="S39" t="inlineStr">
         <is>
           <t>0</t>
@@ -6754,16 +6184,6 @@
           <t>COD BANCO</t>
         </is>
       </c>
-      <c r="AB39" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
-      <c r="AC39" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
       <c r="AD39" t="inlineStr">
         <is>
           <t>7012</t>
@@ -6771,49 +6191,49 @@
       </c>
       <c r="AE39" t="inlineStr">
         <is>
-          <t>VENTA DE Productos</t>
+          <t>VENTA DE BIENES</t>
         </is>
       </c>
       <c r="AF39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>03</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>F001</t>
+          <t>B001</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2023-02-08</t>
+          <t>2022-12-28</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>20602389660</t>
+          <t>20541628631</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>EMPRESA GRUPO JIVO SOCIEDAD ANONIMA CERRADA</t>
+          <t>METALPROTEC SAC</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2134.95</t>
+          <t>63.61</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -6828,12 +6248,12 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>2519.24</t>
+          <t>75.06</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>384.29</t>
+          <t>11.45</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -6858,7 +6278,7 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>2519.24</t>
+          <t>75.06</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
@@ -6866,11 +6286,6 @@
           <t>0,00</t>
         </is>
       </c>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>Aceptado</t>
-        </is>
-      </c>
       <c r="S40" t="inlineStr">
         <is>
           <t>0</t>
@@ -6916,16 +6331,6 @@
           <t>COD BANCO</t>
         </is>
       </c>
-      <c r="AB40" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
-      <c r="AC40" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
       <c r="AD40" t="inlineStr">
         <is>
           <t>7012</t>
@@ -6933,49 +6338,49 @@
       </c>
       <c r="AE40" t="inlineStr">
         <is>
-          <t>VENTA DE Productos</t>
+          <t>VENTA DE BIENES</t>
         </is>
       </c>
       <c r="AF40" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>03</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>F001</t>
+          <t>B001</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>386</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2023-02-08</t>
+          <t>2022-12-28</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>20601825491</t>
+          <t>20541628631</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>FERSERVICE NAVAL E INDUSTRIAL E.I.R.L.</t>
+          <t>METALPROTEC SAC</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>3933.81</t>
+          <t>63.61</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -6990,12 +6395,12 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>4641.9</t>
+          <t>75.06</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>708.09</t>
+          <t>11.45</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -7020,7 +6425,7 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>4641.9</t>
+          <t>75.06</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
@@ -7030,7 +6435,7 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Aceptado</t>
+          <t>X</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
@@ -7053,3112 +6458,39 @@
           <t>-</t>
         </is>
       </c>
-      <c r="W41" t="inlineStr">
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z41" t="inlineStr">
+        <is>
+          <t>FECHA DETRAC</t>
+        </is>
+      </c>
+      <c r="AA41" t="inlineStr">
+        <is>
+          <t>COD BANCO</t>
+        </is>
+      </c>
+      <c r="AD41" t="inlineStr">
+        <is>
+          <t>7012</t>
+        </is>
+      </c>
+      <c r="AE41" t="inlineStr">
+        <is>
+          <t>VENTA DE BIENES</t>
+        </is>
+      </c>
+      <c r="AF41" t="inlineStr">
         <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="X41" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
-      <c r="Y41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z41" t="inlineStr">
-        <is>
-          <t>FECHA DETRAC</t>
-        </is>
-      </c>
-      <c r="AA41" t="inlineStr">
-        <is>
-          <t>COD BANCO</t>
-        </is>
-      </c>
-      <c r="AB41" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
-      <c r="AC41" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
-      <c r="AD41" t="inlineStr">
-        <is>
-          <t>7012</t>
-        </is>
-      </c>
-      <c r="AE41" t="inlineStr">
-        <is>
-          <t>VENTA DE Productos</t>
-        </is>
-      </c>
-      <c r="AF41" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>F001</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>385</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>2023-02-08</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>20361348011</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>EMPRESA PESQUERA MARIA DEL ROCIO SRLTDA</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>204.36</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>241.14</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>36.78</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="P42" t="inlineStr">
-        <is>
-          <t>241.14</t>
-        </is>
-      </c>
-      <c r="Q42" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>Aceptado</t>
-        </is>
-      </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T42" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="U42" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V42" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W42" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="X42" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
-      <c r="Y42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z42" t="inlineStr">
-        <is>
-          <t>FECHA DETRAC</t>
-        </is>
-      </c>
-      <c r="AA42" t="inlineStr">
-        <is>
-          <t>COD BANCO</t>
-        </is>
-      </c>
-      <c r="AB42" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
-      <c r="AC42" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
-      <c r="AD42" t="inlineStr">
-        <is>
-          <t>7012</t>
-        </is>
-      </c>
-      <c r="AE42" t="inlineStr">
-        <is>
-          <t>VENTA DE Productos</t>
-        </is>
-      </c>
-      <c r="AF42" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>F001</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>384</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>2023-02-08</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>10329884762</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>SANCHEZ CONDORI GRISELDA SOFIA</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>3354.8</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>3958.66</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>603.86</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t>3958.66</t>
-        </is>
-      </c>
-      <c r="Q43" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>Aceptado</t>
-        </is>
-      </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T43" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="U43" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V43" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W43" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="X43" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
-      <c r="Y43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z43" t="inlineStr">
-        <is>
-          <t>FECHA DETRAC</t>
-        </is>
-      </c>
-      <c r="AA43" t="inlineStr">
-        <is>
-          <t>COD BANCO</t>
-        </is>
-      </c>
-      <c r="AB43" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
-      <c r="AC43" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
-      <c r="AD43" t="inlineStr">
-        <is>
-          <t>7012</t>
-        </is>
-      </c>
-      <c r="AE43" t="inlineStr">
-        <is>
-          <t>VENTA DE Productos</t>
-        </is>
-      </c>
-      <c r="AF43" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>F001</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>383</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>2023-02-07</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>20603686498</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>MEGUI INVESTMENT S.A.C.</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>259.53</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>306.25</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>46.72</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t>306.25</t>
-        </is>
-      </c>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>Aceptado</t>
-        </is>
-      </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T44" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="U44" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V44" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W44" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="X44" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
-      <c r="Y44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z44" t="inlineStr">
-        <is>
-          <t>FECHA DETRAC</t>
-        </is>
-      </c>
-      <c r="AA44" t="inlineStr">
-        <is>
-          <t>COD BANCO</t>
-        </is>
-      </c>
-      <c r="AB44" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
-      <c r="AC44" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
-      <c r="AD44" t="inlineStr">
-        <is>
-          <t>7012</t>
-        </is>
-      </c>
-      <c r="AE44" t="inlineStr">
-        <is>
-          <t>VENTA DE Productos</t>
-        </is>
-      </c>
-      <c r="AF44" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>F001</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>382</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>2023-02-07</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>20601799309</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>INVERSIONES BJES E.I.R.L.</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>208.47</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>245.99</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>37.52</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>245.99</t>
-        </is>
-      </c>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>Aceptado</t>
-        </is>
-      </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T45" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="U45" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V45" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W45" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="X45" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
-      <c r="Y45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z45" t="inlineStr">
-        <is>
-          <t>FECHA DETRAC</t>
-        </is>
-      </c>
-      <c r="AA45" t="inlineStr">
-        <is>
-          <t>COD BANCO</t>
-        </is>
-      </c>
-      <c r="AB45" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
-      <c r="AC45" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
-      <c r="AD45" t="inlineStr">
-        <is>
-          <t>7012</t>
-        </is>
-      </c>
-      <c r="AE45" t="inlineStr">
-        <is>
-          <t>VENTA DE Productos</t>
-        </is>
-      </c>
-      <c r="AF45" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>F001</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>381</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>2023-02-06</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>20601825491</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>FERSERVICE NAVAL E INDUSTRIAL E.I.R.L.</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>1365.53</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>1611.33</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>245.8</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="P46" t="inlineStr">
-        <is>
-          <t>1611.33</t>
-        </is>
-      </c>
-      <c r="Q46" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>Aceptado</t>
-        </is>
-      </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T46" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="U46" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V46" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W46" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="X46" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
-      <c r="Y46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z46" t="inlineStr">
-        <is>
-          <t>FECHA DETRAC</t>
-        </is>
-      </c>
-      <c r="AA46" t="inlineStr">
-        <is>
-          <t>COD BANCO</t>
-        </is>
-      </c>
-      <c r="AB46" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
-      <c r="AC46" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
-      <c r="AD46" t="inlineStr">
-        <is>
-          <t>7012</t>
-        </is>
-      </c>
-      <c r="AE46" t="inlineStr">
-        <is>
-          <t>VENTA DE Productos</t>
-        </is>
-      </c>
-      <c r="AF46" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>F001</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>380</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>2023-02-06</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>20602389660</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>EMPRESA GRUPO JIVO SOCIEDAD ANONIMA CERRADA</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>57.36</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>67.68</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>10.32</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t>67.68</t>
-        </is>
-      </c>
-      <c r="Q47" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t>Aceptado</t>
-        </is>
-      </c>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T47" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="U47" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V47" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W47" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="X47" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
-      <c r="Y47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z47" t="inlineStr">
-        <is>
-          <t>FECHA DETRAC</t>
-        </is>
-      </c>
-      <c r="AA47" t="inlineStr">
-        <is>
-          <t>COD BANCO</t>
-        </is>
-      </c>
-      <c r="AB47" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
-      <c r="AC47" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
-      <c r="AD47" t="inlineStr">
-        <is>
-          <t>7012</t>
-        </is>
-      </c>
-      <c r="AE47" t="inlineStr">
-        <is>
-          <t>VENTA DE Productos</t>
-        </is>
-      </c>
-      <c r="AF47" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>F001</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>379</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>2023-02-04</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>20603686498</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>MEGUI INVESTMENT S.A.C.</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>138.96</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>163.97</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>25.01</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>163.97</t>
-        </is>
-      </c>
-      <c r="Q48" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>Aceptado</t>
-        </is>
-      </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T48" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="U48" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V48" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W48" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="X48" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
-      <c r="Y48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z48" t="inlineStr">
-        <is>
-          <t>FECHA DETRAC</t>
-        </is>
-      </c>
-      <c r="AA48" t="inlineStr">
-        <is>
-          <t>COD BANCO</t>
-        </is>
-      </c>
-      <c r="AB48" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
-      <c r="AC48" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
-      <c r="AD48" t="inlineStr">
-        <is>
-          <t>7012</t>
-        </is>
-      </c>
-      <c r="AE48" t="inlineStr">
-        <is>
-          <t>VENTA DE Productos</t>
-        </is>
-      </c>
-      <c r="AF48" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>F001</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>378</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>2023-02-03</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>20601799309</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>INVERSIONES BJES E.I.R.L.</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>112.67</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>132.95</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>20.28</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="P49" t="inlineStr">
-        <is>
-          <t>132.95</t>
-        </is>
-      </c>
-      <c r="Q49" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>Aceptado</t>
-        </is>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T49" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="U49" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V49" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W49" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="X49" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
-      <c r="Y49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z49" t="inlineStr">
-        <is>
-          <t>FECHA DETRAC</t>
-        </is>
-      </c>
-      <c r="AA49" t="inlineStr">
-        <is>
-          <t>COD BANCO</t>
-        </is>
-      </c>
-      <c r="AB49" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
-      <c r="AC49" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
-      <c r="AD49" t="inlineStr">
-        <is>
-          <t>7012</t>
-        </is>
-      </c>
-      <c r="AE49" t="inlineStr">
-        <is>
-          <t>VENTA DE Productos</t>
-        </is>
-      </c>
-      <c r="AF49" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>F001</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>377</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>2023-02-03</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>20602389660</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>EMPRESA GRUPO JIVO SOCIEDAD ANONIMA CERRADA</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>27.89</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>32.91</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="P50" t="inlineStr">
-        <is>
-          <t>32.91</t>
-        </is>
-      </c>
-      <c r="Q50" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>Aceptado</t>
-        </is>
-      </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T50" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="U50" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V50" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W50" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="X50" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
-      <c r="Y50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z50" t="inlineStr">
-        <is>
-          <t>FECHA DETRAC</t>
-        </is>
-      </c>
-      <c r="AA50" t="inlineStr">
-        <is>
-          <t>COD BANCO</t>
-        </is>
-      </c>
-      <c r="AB50" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
-      <c r="AC50" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
-      <c r="AD50" t="inlineStr">
-        <is>
-          <t>7012</t>
-        </is>
-      </c>
-      <c r="AE50" t="inlineStr">
-        <is>
-          <t>VENTA DE Productos</t>
-        </is>
-      </c>
-      <c r="AF50" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>F001</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>376</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>2023-02-02</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>20603686498</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>MEGUI INVESTMENT S.A.C.</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>576.25</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>679.97</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>103.72</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="P51" t="inlineStr">
-        <is>
-          <t>679.97</t>
-        </is>
-      </c>
-      <c r="Q51" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>Aceptado</t>
-        </is>
-      </c>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T51" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="U51" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V51" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W51" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="X51" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
-      <c r="Y51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z51" t="inlineStr">
-        <is>
-          <t>FECHA DETRAC</t>
-        </is>
-      </c>
-      <c r="AA51" t="inlineStr">
-        <is>
-          <t>COD BANCO</t>
-        </is>
-      </c>
-      <c r="AB51" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
-      <c r="AC51" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
-      <c r="AD51" t="inlineStr">
-        <is>
-          <t>7012</t>
-        </is>
-      </c>
-      <c r="AE51" t="inlineStr">
-        <is>
-          <t>VENTA DE Productos</t>
-        </is>
-      </c>
-      <c r="AF51" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>F001</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>375</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>2023-02-02</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>20541686321</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>INVERSIONES CASALI EIRL</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>5837.02</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>6887.68</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>1050.66</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="P52" t="inlineStr">
-        <is>
-          <t>6887.68</t>
-        </is>
-      </c>
-      <c r="Q52" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="R52" t="inlineStr">
-        <is>
-          <t>Aceptado</t>
-        </is>
-      </c>
-      <c r="S52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T52" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="U52" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V52" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W52" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="X52" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
-      <c r="Y52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z52" t="inlineStr">
-        <is>
-          <t>FECHA DETRAC</t>
-        </is>
-      </c>
-      <c r="AA52" t="inlineStr">
-        <is>
-          <t>COD BANCO</t>
-        </is>
-      </c>
-      <c r="AB52" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
-      <c r="AC52" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
-      <c r="AD52" t="inlineStr">
-        <is>
-          <t>7012</t>
-        </is>
-      </c>
-      <c r="AE52" t="inlineStr">
-        <is>
-          <t>VENTA DE Productos</t>
-        </is>
-      </c>
-      <c r="AF52" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>F001</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>374</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>2023-02-02</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>20602717993</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>FERRETERIA INDUSTRIAL THAIS E.I.R.L.</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>7077.6</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>8351.57</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>1273.97</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="P53" t="inlineStr">
-        <is>
-          <t>8351.57</t>
-        </is>
-      </c>
-      <c r="Q53" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="R53" t="inlineStr">
-        <is>
-          <t>Aceptado</t>
-        </is>
-      </c>
-      <c r="S53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T53" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="U53" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V53" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W53" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="X53" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
-      <c r="Y53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z53" t="inlineStr">
-        <is>
-          <t>FECHA DETRAC</t>
-        </is>
-      </c>
-      <c r="AA53" t="inlineStr">
-        <is>
-          <t>COD BANCO</t>
-        </is>
-      </c>
-      <c r="AB53" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
-      <c r="AC53" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
-      <c r="AD53" t="inlineStr">
-        <is>
-          <t>7012</t>
-        </is>
-      </c>
-      <c r="AE53" t="inlineStr">
-        <is>
-          <t>VENTA DE Productos</t>
-        </is>
-      </c>
-      <c r="AF53" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>F001</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>373</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>2023-02-01</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>20601799309</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>INVERSIONES BJES E.I.R.L.</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>47.9</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>56.52</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>8.62</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="P54" t="inlineStr">
-        <is>
-          <t>56.52</t>
-        </is>
-      </c>
-      <c r="Q54" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="R54" t="inlineStr">
-        <is>
-          <t>Aceptado</t>
-        </is>
-      </c>
-      <c r="S54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T54" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="U54" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V54" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W54" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="X54" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
-      <c r="Y54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z54" t="inlineStr">
-        <is>
-          <t>FECHA DETRAC</t>
-        </is>
-      </c>
-      <c r="AA54" t="inlineStr">
-        <is>
-          <t>COD BANCO</t>
-        </is>
-      </c>
-      <c r="AB54" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
-      <c r="AC54" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
-      <c r="AD54" t="inlineStr">
-        <is>
-          <t>7012</t>
-        </is>
-      </c>
-      <c r="AE54" t="inlineStr">
-        <is>
-          <t>VENTA DE Productos</t>
-        </is>
-      </c>
-      <c r="AF54" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>F001</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>372</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>2023-02-01</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>20601799309</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>INVERSIONES BJES E.I.R.L.</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>40.44</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>47.72</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>7.28</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="P55" t="inlineStr">
-        <is>
-          <t>47.72</t>
-        </is>
-      </c>
-      <c r="Q55" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="R55" t="inlineStr">
-        <is>
-          <t>Aceptado</t>
-        </is>
-      </c>
-      <c r="S55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T55" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="U55" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V55" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W55" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="X55" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
-      <c r="Y55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z55" t="inlineStr">
-        <is>
-          <t>FECHA DETRAC</t>
-        </is>
-      </c>
-      <c r="AA55" t="inlineStr">
-        <is>
-          <t>COD BANCO</t>
-        </is>
-      </c>
-      <c r="AB55" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
-      <c r="AC55" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
-      <c r="AD55" t="inlineStr">
-        <is>
-          <t>7012</t>
-        </is>
-      </c>
-      <c r="AE55" t="inlineStr">
-        <is>
-          <t>VENTA DE Productos</t>
-        </is>
-      </c>
-      <c r="AF55" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>F001</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>371</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>2023-02-01</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>20602389660</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>EMPRESA GRUPO JIVO SOCIEDAD ANONIMA CERRADA</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>777.8</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>917.8</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>140.0</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="P56" t="inlineStr">
-        <is>
-          <t>917.8</t>
-        </is>
-      </c>
-      <c r="Q56" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="R56" t="inlineStr">
-        <is>
-          <t>Aceptado</t>
-        </is>
-      </c>
-      <c r="S56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T56" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="U56" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V56" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W56" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="X56" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
-      <c r="Y56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z56" t="inlineStr">
-        <is>
-          <t>FECHA DETRAC</t>
-        </is>
-      </c>
-      <c r="AA56" t="inlineStr">
-        <is>
-          <t>COD BANCO</t>
-        </is>
-      </c>
-      <c r="AB56" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
-      <c r="AC56" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
-      <c r="AD56" t="inlineStr">
-        <is>
-          <t>7012</t>
-        </is>
-      </c>
-      <c r="AE56" t="inlineStr">
-        <is>
-          <t>VENTA DE Productos</t>
-        </is>
-      </c>
-      <c r="AF56" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>F001</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>370</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>2023-02-01</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>10329334657</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>VELASQUEZ NUÑEZ SILVIA DEL PILAR</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>9361.25</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>11046.27</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>1685.02</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="P57" t="inlineStr">
-        <is>
-          <t>11046.27</t>
-        </is>
-      </c>
-      <c r="Q57" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="R57" t="inlineStr">
-        <is>
-          <t>Aceptado</t>
-        </is>
-      </c>
-      <c r="S57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T57" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="U57" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V57" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W57" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="X57" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
-      <c r="Y57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z57" t="inlineStr">
-        <is>
-          <t>FECHA DETRAC</t>
-        </is>
-      </c>
-      <c r="AA57" t="inlineStr">
-        <is>
-          <t>COD BANCO</t>
-        </is>
-      </c>
-      <c r="AB57" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
-      <c r="AC57" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
-      <c r="AD57" t="inlineStr">
-        <is>
-          <t>7012</t>
-        </is>
-      </c>
-      <c r="AE57" t="inlineStr">
-        <is>
-          <t>VENTA DE Productos</t>
-        </is>
-      </c>
-      <c r="AF57" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>03</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>B001</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>2023-02-20</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>407.81</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>481.22</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>73.41</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="P58" t="inlineStr">
-        <is>
-          <t>481.22</t>
-        </is>
-      </c>
-      <c r="Q58" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="R58" t="inlineStr">
-        <is>
-          <t>Aceptado</t>
-        </is>
-      </c>
-      <c r="S58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T58" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="U58" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V58" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W58" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="X58" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
-      <c r="Y58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z58" t="inlineStr">
-        <is>
-          <t>FECHA DETRAC</t>
-        </is>
-      </c>
-      <c r="AA58" t="inlineStr">
-        <is>
-          <t>COD BANCO</t>
-        </is>
-      </c>
-      <c r="AB58" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
-      <c r="AC58" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
-      <c r="AD58" t="inlineStr">
-        <is>
-          <t>7012</t>
-        </is>
-      </c>
-      <c r="AE58" t="inlineStr">
-        <is>
-          <t>VENTA DE Productos</t>
-        </is>
-      </c>
-      <c r="AF58" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>03</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>B001</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>2023-02-20</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>407.81</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>481.22</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>73.41</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="P59" t="inlineStr">
-        <is>
-          <t>481.22</t>
-        </is>
-      </c>
-      <c r="Q59" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="R59" t="inlineStr">
-        <is>
-          <t>Rechazado</t>
-        </is>
-      </c>
-      <c r="S59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T59" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="U59" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V59" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W59" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="X59" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
-      <c r="Y59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z59" t="inlineStr">
-        <is>
-          <t>FECHA DETRAC</t>
-        </is>
-      </c>
-      <c r="AA59" t="inlineStr">
-        <is>
-          <t>COD BANCO</t>
-        </is>
-      </c>
-      <c r="AB59" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
-      <c r="AC59" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
-      <c r="AD59" t="inlineStr">
-        <is>
-          <t>7012</t>
-        </is>
-      </c>
-      <c r="AE59" t="inlineStr">
-        <is>
-          <t>VENTA DE Productos</t>
-        </is>
-      </c>
-      <c r="AF59" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>07</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>FNC1</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>2023-02-01</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>20602389660</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>EMPRESA GRUPO JIVO SOCIEDAD ANONIMA CERRADA</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>777.8</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>917.8</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>140.0</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="P60" t="inlineStr">
-        <is>
-          <t>917.8</t>
-        </is>
-      </c>
-      <c r="Q60" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="R60" t="inlineStr">
-        <is>
-          <t>Aceptado</t>
-        </is>
-      </c>
-      <c r="S60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T60" t="inlineStr">
-        <is>
-          <t>Factura</t>
-        </is>
-      </c>
-      <c r="U60" t="inlineStr">
-        <is>
-          <t>F001</t>
-        </is>
-      </c>
-      <c r="V60" t="inlineStr">
-        <is>
-          <t>0367</t>
-        </is>
-      </c>
-      <c r="W60" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="X60" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
-      <c r="Y60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z60" t="inlineStr">
-        <is>
-          <t>FECHA DETRAC</t>
-        </is>
-      </c>
-      <c r="AA60" t="inlineStr">
-        <is>
-          <t>COD BANCO</t>
-        </is>
-      </c>
-      <c r="AB60" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
-      <c r="AC60" t="inlineStr">
-        <is>
-          <t>EN EL COMPROBANTE</t>
-        </is>
-      </c>
-      <c r="AD60" t="inlineStr">
-        <is>
-          <t>7012</t>
-        </is>
-      </c>
-      <c r="AE60" t="inlineStr">
-        <is>
-          <t>Nota de credito</t>
-        </is>
-      </c>
-      <c r="AF60" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
     </row>

--- a/info_excel.xlsx
+++ b/info_excel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,17 +433,15 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
-    <col width="40" customWidth="1" min="3" max="3"/>
-    <col width="15" customWidth="1" min="4" max="4"/>
-    <col width="15" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
-    <col width="20" customWidth="1" min="7" max="7"/>
-    <col width="40" customWidth="1" min="8" max="8"/>
-    <col width="15" customWidth="1" min="9" max="9"/>
-    <col width="15" customWidth="1" min="10" max="10"/>
-    <col width="15" customWidth="1" min="11" max="11"/>
+    <col width="30" customWidth="1" min="1" max="1"/>
+    <col width="30" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="30" customWidth="1" min="4" max="4"/>
+    <col width="30" customWidth="1" min="5" max="5"/>
+    <col width="30" customWidth="1" min="6" max="6"/>
+    <col width="30" customWidth="1" min="7" max="7"/>
+    <col width="30" customWidth="1" min="8" max="8"/>
+    <col width="30" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -459,161 +457,368 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Cliente</t>
+          <t>Cliente / (Producto / Servicio)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>RUC</t>
+          <t>Estado</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Estado</t>
+          <t>Vendedor</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Vendedor</t>
+          <t>Guias</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Guias</t>
+          <t>Moneda</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Item</t>
+          <t>Monto de la boleta</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Moneda</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>PU (SIN IGV) S/</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Cantidad</t>
+          <t>Monto (S/)</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2023-04-10</t>
+          <t>2023-04-28</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B001-0023</t>
+          <t>B001-0028</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SEGUNDO CARCAMO NIZAMA</t>
+          <t>MARIA LUZ PEREZ DE RAMOS</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>32804324</t>
+          <t>Aceptado</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Aceptado</t>
+          <t>USR-16</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>USR-16</t>
+          <t>['T001-0617']</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['T001-0573']</t>
+          <t>SOLES</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>FASTIMAS MASILLA - PARTE A . 1/2 GL</t>
+          <t>512.18</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>SOLES</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>69.52</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>1</t>
+          <t>512.18</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>B001-0027</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">METALPROTEC S.A.C </t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>USR-16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>['T001-0613']</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>SOLES</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1042.15</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1042.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2023-04-26</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>B001-0026</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">METALPROTEC S.A.C </t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>USR-16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>['T001-0611']</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>SOLES</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>733.46</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>733.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2023-04-24</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>B001-0025</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ELIAS MARCHENA MARCHENA</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Aceptado</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>USR-16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>['T001-0603']</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>SOLES</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>258.21</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>258.21</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2023-04-19</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>B001-0024</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>ELIAS MARCHENA MARCHENA</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Aceptado</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>USR-16</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>['T001-0593']</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>SOLES</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>259.11</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>259.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>2023-04-10</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>B001-0023</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>SEGUNDO CARCAMO NIZAMA</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>32804324</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Aceptado</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>USR-16</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>['T001-0573']</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>FASTIMAS MASILLA - PARTE B . 1/2 GL</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>SOLES</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>69.52</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>139.04</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>139.04</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2023-04-01</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>B001-0022</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>EUSTACIO VIDAL CESPEDES</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Aceptado</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>USR-16</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>['T001-0561']</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>SOLES</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>154.77</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>154.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Monto Total</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>1323.31</t>
         </is>
       </c>
     </row>
